--- a/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,34 +626,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.035947533675895</v>
+        <v>0.9706634237218303</v>
       </c>
       <c r="D3">
+        <v>0.9609620346861698</v>
+      </c>
+      <c r="E3">
+        <v>1.041454921632092</v>
+      </c>
+      <c r="F3">
+        <v>1.035947533675894</v>
+      </c>
+      <c r="G3">
+        <v>1.035947533675894</v>
+      </c>
+      <c r="H3">
         <v>1.124540072658765</v>
       </c>
-      <c r="E3">
-        <v>0.9592690725696469</v>
-      </c>
-      <c r="F3">
-        <v>1.035947533675895</v>
-      </c>
-      <c r="G3">
-        <v>0.9609620346861698</v>
-      </c>
-      <c r="H3">
-        <v>1.041454921632092</v>
-      </c>
       <c r="I3">
-        <v>0.9706634237218303</v>
+        <v>1.124540072658765</v>
       </c>
       <c r="J3">
-        <v>1.124540072658765</v>
+        <v>0.9592690725696471</v>
       </c>
       <c r="K3">
-        <v>1.035947533675895</v>
+        <v>1.035947533675894</v>
       </c>
       <c r="L3">
-        <v>0.9592690725696469</v>
+        <v>0.9592690725696471</v>
       </c>
       <c r="M3">
         <v>1.041904572614206</v>
@@ -728,7 +680,7 @@
         <v>1.0154728431574</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.065006547477734</v>
+        <v>0.9448020523935499</v>
       </c>
       <c r="D4">
-        <v>1.232367712158839</v>
+        <v>0.9223475600236296</v>
       </c>
       <c r="E4">
-        <v>0.9221711735522164</v>
+        <v>1.079748662427598</v>
       </c>
       <c r="F4">
         <v>1.065006547477734</v>
       </c>
       <c r="G4">
-        <v>0.9223475600236296</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="H4">
-        <v>1.079748662427598</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="I4">
-        <v>0.9448020523935498</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="J4">
-        <v>1.232367712158839</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="K4">
         <v>1.065006547477734</v>
@@ -790,7 +742,7 @@
         <v>1.027740618005595</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.134411796161258</v>
+        <v>0.8914535673485634</v>
       </c>
       <c r="D5">
-        <v>1.479802487016625</v>
+        <v>0.8576905826465991</v>
       </c>
       <c r="E5">
-        <v>0.8530085348348329</v>
+        <v>1.161835435331867</v>
       </c>
       <c r="F5">
         <v>1.134411796161258</v>
       </c>
       <c r="G5">
-        <v>0.8576905826465991</v>
+        <v>1.134411796161258</v>
       </c>
       <c r="H5">
-        <v>1.161835435331867</v>
+        <v>1.479802487016625</v>
       </c>
       <c r="I5">
-        <v>0.8914535673485634</v>
+        <v>1.479802487016625</v>
       </c>
       <c r="J5">
-        <v>1.479802487016625</v>
+        <v>0.8530085348348329</v>
       </c>
       <c r="K5">
         <v>1.134411796161258</v>
@@ -852,7 +804,7 @@
         <v>1.063033733889957</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.215986609931587</v>
+        <v>0.8123046903081417</v>
       </c>
       <c r="D6">
-        <v>1.779270264447036</v>
+        <v>0.7567505821358729</v>
       </c>
       <c r="E6">
-        <v>0.8690728096508618</v>
+        <v>1.28433954173443</v>
       </c>
       <c r="F6">
         <v>1.215986609931587</v>
       </c>
       <c r="G6">
-        <v>0.7567505821358729</v>
+        <v>1.215986609931587</v>
       </c>
       <c r="H6">
-        <v>1.28433954173443</v>
+        <v>1.779270264447036</v>
       </c>
       <c r="I6">
-        <v>0.8123046903081417</v>
+        <v>1.779270264447036</v>
       </c>
       <c r="J6">
-        <v>1.779270264447036</v>
+        <v>0.8690728096508618</v>
       </c>
       <c r="K6">
         <v>1.215986609931587</v>
@@ -914,7 +866,7 @@
         <v>1.119620749701322</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999844538758236</v>
+        <v>0.9987994197774274</v>
       </c>
       <c r="D7">
+        <v>0.9986891455050806</v>
+      </c>
+      <c r="E7">
+        <v>1.000586749112117</v>
+      </c>
+      <c r="F7">
+        <v>0.9998445387582356</v>
+      </c>
+      <c r="G7">
+        <v>0.9998445387582356</v>
+      </c>
+      <c r="H7">
         <v>1.014130254101859</v>
       </c>
-      <c r="E7">
-        <v>0.9986670924592226</v>
-      </c>
-      <c r="F7">
-        <v>0.999844538758236</v>
-      </c>
-      <c r="G7">
-        <v>0.9986891455050804</v>
-      </c>
-      <c r="H7">
-        <v>1.000586749112116</v>
-      </c>
       <c r="I7">
-        <v>0.9987994197774273</v>
+        <v>1.014130254101859</v>
       </c>
       <c r="J7">
-        <v>1.014130254101859</v>
+        <v>0.9986670924592225</v>
       </c>
       <c r="K7">
-        <v>0.999844538758236</v>
+        <v>0.9998445387582356</v>
       </c>
       <c r="L7">
-        <v>0.9986670924592226</v>
+        <v>0.9986670924592225</v>
       </c>
       <c r="M7">
         <v>1.006398673280541</v>
@@ -976,7 +928,7 @@
         <v>1.001786199952323</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001263409090416</v>
+        <v>0.9967222373412145</v>
       </c>
       <c r="D8">
-        <v>1.033121305678897</v>
+        <v>0.9965825019128847</v>
       </c>
       <c r="E8">
-        <v>0.9964118959420463</v>
+        <v>1.001801085279408</v>
       </c>
       <c r="F8">
-        <v>1.001263409090416</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="G8">
-        <v>0.9965825019128841</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="H8">
-        <v>1.001801085279408</v>
+        <v>1.033121305678899</v>
       </c>
       <c r="I8">
-        <v>0.9967222373412157</v>
+        <v>1.033121305678899</v>
       </c>
       <c r="J8">
-        <v>1.033121305678897</v>
+        <v>0.9964118959420472</v>
       </c>
       <c r="K8">
-        <v>1.001263409090416</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="L8">
-        <v>0.9964118959420463</v>
+        <v>0.9964118959420472</v>
       </c>
       <c r="M8">
-        <v>1.014766600810472</v>
+        <v>1.014766600810473</v>
       </c>
       <c r="N8">
-        <v>1.014766600810472</v>
+        <v>1.014766600810473</v>
       </c>
       <c r="O8">
-        <v>1.010444762300117</v>
+        <v>1.010444762300118</v>
       </c>
       <c r="P8">
         <v>1.010265536903787</v>
@@ -1038,7 +990,7 @@
         <v>1.004317072540811</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004585004023049</v>
+        <v>0.996086431521766</v>
       </c>
       <c r="D9">
-        <v>1.039525649056005</v>
+        <v>0.993141193761038</v>
       </c>
       <c r="E9">
-        <v>0.9951972550421428</v>
+        <v>1.002205300011038</v>
       </c>
       <c r="F9">
         <v>1.004585004023049</v>
       </c>
       <c r="G9">
-        <v>0.993141193761038</v>
+        <v>1.004585004023049</v>
       </c>
       <c r="H9">
-        <v>1.002205300011038</v>
+        <v>1.039525649056005</v>
       </c>
       <c r="I9">
-        <v>0.9960864315217658</v>
+        <v>1.039525649056005</v>
       </c>
       <c r="J9">
-        <v>1.039525649056005</v>
+        <v>0.9951972550421428</v>
       </c>
       <c r="K9">
         <v>1.004585004023049</v>
@@ -1100,7 +1052,7 @@
         <v>1.00512347223584</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006331822938018</v>
+        <v>0.9916798347318277</v>
       </c>
       <c r="D10">
-        <v>1.094312130144723</v>
+        <v>0.9874039316985757</v>
       </c>
       <c r="E10">
-        <v>0.9909104891386891</v>
+        <v>1.004320661086227</v>
       </c>
       <c r="F10">
         <v>1.006331822938018</v>
       </c>
       <c r="G10">
-        <v>0.9874039316985757</v>
+        <v>1.006331822938018</v>
       </c>
       <c r="H10">
-        <v>1.004320661086227</v>
+        <v>1.094312130144723</v>
       </c>
       <c r="I10">
-        <v>0.9916798347318277</v>
+        <v>1.094312130144723</v>
       </c>
       <c r="J10">
-        <v>1.094312130144723</v>
+        <v>0.9909104891386891</v>
       </c>
       <c r="K10">
         <v>1.006331822938018</v>
@@ -1162,7 +1114,7 @@
         <v>1.012493144956343</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.02258356614374</v>
+        <v>0.9842913267171939</v>
       </c>
       <c r="D11">
-        <v>1.141008840450393</v>
+        <v>0.9818799329941078</v>
       </c>
       <c r="E11">
-        <v>0.9808943549338788</v>
+        <v>1.010532430742616</v>
       </c>
       <c r="F11">
         <v>1.02258356614374</v>
       </c>
       <c r="G11">
-        <v>0.9818799329941076</v>
+        <v>1.02258356614374</v>
       </c>
       <c r="H11">
-        <v>1.010532430742616</v>
+        <v>1.141008840450393</v>
       </c>
       <c r="I11">
-        <v>0.9842913267171939</v>
+        <v>1.141008840450393</v>
       </c>
       <c r="J11">
-        <v>1.141008840450393</v>
+        <v>0.9808943549338788</v>
       </c>
       <c r="K11">
         <v>1.02258356614374</v>
@@ -1224,7 +1176,7 @@
         <v>1.020198408663655</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.479441576350061</v>
+        <v>1.141002669141212</v>
       </c>
       <c r="D12">
-        <v>0.08778695144993891</v>
+        <v>0.06967064365367504</v>
       </c>
       <c r="E12">
-        <v>0.4796082259608624</v>
+        <v>0.8761457003203269</v>
       </c>
       <c r="F12">
         <v>2.479441576350061</v>
       </c>
       <c r="G12">
-        <v>0.06967064365367502</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="H12">
-        <v>0.8761457003203271</v>
+        <v>0.08778695144993871</v>
       </c>
       <c r="I12">
-        <v>1.141002669141212</v>
+        <v>0.08778695144993871</v>
       </c>
       <c r="J12">
-        <v>0.08778695144993891</v>
+        <v>0.4796082259608624</v>
       </c>
       <c r="K12">
         <v>2.479441576350061</v>
@@ -1268,7 +1220,7 @@
         <v>0.2836975887054006</v>
       </c>
       <c r="O12">
-        <v>0.4811802925770428</v>
+        <v>0.4811802925770427</v>
       </c>
       <c r="P12">
         <v>1.015612251253621</v>
@@ -1283,10 +1235,10 @@
         <v>1.381569582527731</v>
       </c>
       <c r="T12">
-        <v>0.8556092944793461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.855609294479346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3204352799556486</v>
+        <v>1.081911017530356</v>
       </c>
       <c r="D13">
+        <v>1.232729222069633</v>
+      </c>
+      <c r="E13">
+        <v>0.824156571401244</v>
+      </c>
+      <c r="F13">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="G13">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="H13">
         <v>1.050513637667589</v>
       </c>
-      <c r="E13">
+      <c r="I13">
+        <v>1.050513637667589</v>
+      </c>
+      <c r="J13">
         <v>1.452558459160359</v>
       </c>
-      <c r="F13">
-        <v>0.3204352799556486</v>
-      </c>
-      <c r="G13">
-        <v>1.232729222069633</v>
-      </c>
-      <c r="H13">
-        <v>0.8241565714012438</v>
-      </c>
-      <c r="I13">
-        <v>1.081911017530356</v>
-      </c>
-      <c r="J13">
-        <v>1.050513637667589</v>
-      </c>
       <c r="K13">
-        <v>0.3204352799556486</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="L13">
         <v>1.452558459160359</v>
@@ -1345,10 +1297,10 @@
         <v>0.7859856641848113</v>
       </c>
       <c r="T13">
-        <v>0.993717364630805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9937173646308048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,49 +1308,49 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3218564699133818</v>
+        <v>1.321770894541482</v>
       </c>
       <c r="D14">
-        <v>0.0877368150670411</v>
+        <v>1.77664282667386</v>
       </c>
       <c r="E14">
-        <v>1.427669694193636</v>
+        <v>0.5011461361531316</v>
       </c>
       <c r="F14">
-        <v>0.3218564699133818</v>
+        <v>0.3218564699133816</v>
       </c>
       <c r="G14">
-        <v>1.77664282667386</v>
+        <v>0.3218564699133816</v>
       </c>
       <c r="H14">
-        <v>0.5011461361531317</v>
+        <v>0.08773681506704098</v>
       </c>
       <c r="I14">
-        <v>1.321770894541482</v>
+        <v>0.08773681506704098</v>
       </c>
       <c r="J14">
-        <v>0.0877368150670411</v>
+        <v>1.427669694193637</v>
       </c>
       <c r="K14">
-        <v>0.3218564699133818</v>
+        <v>0.3218564699133816</v>
       </c>
       <c r="L14">
-        <v>1.427669694193636</v>
+        <v>1.427669694193637</v>
       </c>
       <c r="M14">
-        <v>0.7577032546303387</v>
+        <v>0.7577032546303391</v>
       </c>
       <c r="N14">
-        <v>0.7577032546303387</v>
+        <v>0.7577032546303391</v>
       </c>
       <c r="O14">
-        <v>0.6721842151379365</v>
+        <v>0.6721842151379366</v>
       </c>
       <c r="P14">
-        <v>0.6124209930580197</v>
+        <v>0.6124209930580199</v>
       </c>
       <c r="Q14">
-        <v>0.6124209930580198</v>
+        <v>0.6124209930580199</v>
       </c>
       <c r="R14">
         <v>0.5397798622718603</v>
@@ -1410,7 +1362,7 @@
         <v>0.9061371394237554</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.715653053211375</v>
+        <v>0.8381313218092414</v>
       </c>
       <c r="D15">
-        <v>1.045772899733438</v>
+        <v>1.386083954800664</v>
       </c>
       <c r="E15">
-        <v>0.6616939008335981</v>
+        <v>1.084522476290895</v>
       </c>
       <c r="F15">
         <v>1.715653053211375</v>
       </c>
       <c r="G15">
-        <v>1.386083954800664</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="H15">
-        <v>1.084522476290895</v>
+        <v>1.045772899733438</v>
       </c>
       <c r="I15">
-        <v>0.8381313218092414</v>
+        <v>1.045772899733438</v>
       </c>
       <c r="J15">
-        <v>1.045772899733438</v>
+        <v>0.6616939008335981</v>
       </c>
       <c r="K15">
         <v>1.715653053211375</v>
@@ -1472,7 +1424,7 @@
         <v>1.121976267779868</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997059051785339</v>
+        <v>0.4697699386410328</v>
       </c>
       <c r="D16">
-        <v>1.001388565125089</v>
+        <v>0.1980988164075445</v>
       </c>
       <c r="E16">
-        <v>1.000511249236278</v>
+        <v>1.792531374112847</v>
       </c>
       <c r="F16">
-        <v>0.9997059051785339</v>
+        <v>1.566343856100662</v>
       </c>
       <c r="G16">
-        <v>1.000955670047835</v>
+        <v>1.566343856100662</v>
       </c>
       <c r="H16">
-        <v>0.9997449601632612</v>
+        <v>3.280533012305478</v>
       </c>
       <c r="I16">
-        <v>1.000124093439621</v>
+        <v>3.280533012305478</v>
       </c>
       <c r="J16">
-        <v>1.001388565125089</v>
+        <v>0.2602319352210364</v>
       </c>
       <c r="K16">
-        <v>0.9997059051785339</v>
+        <v>1.566343856100662</v>
       </c>
       <c r="L16">
-        <v>1.000511249236278</v>
+        <v>0.2602319352210364</v>
       </c>
       <c r="M16">
-        <v>1.000949907180684</v>
+        <v>1.770382473763257</v>
       </c>
       <c r="N16">
-        <v>1.000949907180684</v>
+        <v>1.770382473763257</v>
       </c>
       <c r="O16">
-        <v>1.000548258174876</v>
+        <v>1.777765440546453</v>
       </c>
       <c r="P16">
-        <v>1.000535239846634</v>
+        <v>1.702369601209059</v>
       </c>
       <c r="Q16">
-        <v>1.000535239846634</v>
+        <v>1.702369601209059</v>
       </c>
       <c r="R16">
-        <v>1.000327906179609</v>
+        <v>1.66836316493196</v>
       </c>
       <c r="S16">
-        <v>1.000327906179609</v>
+        <v>1.66836316493196</v>
       </c>
       <c r="T16">
-        <v>1.000405073865103</v>
+        <v>1.2612514887981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9973561380932212</v>
+        <v>0.5934901686615524</v>
       </c>
       <c r="D17">
-        <v>1.02049270735762</v>
+        <v>0.3944329942288726</v>
       </c>
       <c r="E17">
-        <v>0.9964585050587862</v>
+        <v>1.60178989559244</v>
       </c>
       <c r="F17">
-        <v>0.9973561380932212</v>
+        <v>1.323030638709718</v>
       </c>
       <c r="G17">
-        <v>0.9988753596819028</v>
+        <v>1.323030638709718</v>
       </c>
       <c r="H17">
-        <v>0.9991359530590305</v>
+        <v>2.946946932122944</v>
       </c>
       <c r="I17">
-        <v>0.998774778475029</v>
+        <v>2.946946932122944</v>
       </c>
       <c r="J17">
-        <v>1.02049270735762</v>
+        <v>0.4557009699635395</v>
       </c>
       <c r="K17">
-        <v>0.9973561380932212</v>
+        <v>1.323030638709718</v>
       </c>
       <c r="L17">
-        <v>0.9964585050587862</v>
+        <v>0.4557009699635395</v>
       </c>
       <c r="M17">
-        <v>1.008475606208203</v>
+        <v>1.701323951043242</v>
       </c>
       <c r="N17">
-        <v>1.008475606208203</v>
+        <v>1.701323951043242</v>
       </c>
       <c r="O17">
-        <v>1.005362388491812</v>
+        <v>1.668145932559641</v>
       </c>
       <c r="P17">
-        <v>1.004769116836542</v>
+        <v>1.5752261802654</v>
       </c>
       <c r="Q17">
-        <v>1.004769116836542</v>
+        <v>1.5752261802654</v>
       </c>
       <c r="R17">
-        <v>1.002915872150712</v>
+        <v>1.51217729487648</v>
       </c>
       <c r="S17">
-        <v>1.002915872150712</v>
+        <v>1.51217729487648</v>
       </c>
       <c r="T17">
-        <v>1.001848906954265</v>
+        <v>1.219231933213178</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.021400902148155</v>
+        <v>0.8410549643134161</v>
       </c>
       <c r="D18">
-        <v>1.004028716344076</v>
+        <v>0.7864053302316591</v>
       </c>
       <c r="E18">
-        <v>0.9874810495069962</v>
+        <v>1.220661265984908</v>
       </c>
       <c r="F18">
-        <v>1.021400902148155</v>
+        <v>0.8431452172436656</v>
       </c>
       <c r="G18">
-        <v>0.9886323421189239</v>
+        <v>0.8431452172436656</v>
       </c>
       <c r="H18">
-        <v>1.020667630164768</v>
+        <v>2.263286594824714</v>
       </c>
       <c r="I18">
-        <v>0.9896061352236949</v>
+        <v>2.263286594824714</v>
       </c>
       <c r="J18">
-        <v>1.004028716344076</v>
+        <v>0.8459347755130112</v>
       </c>
       <c r="K18">
-        <v>1.021400902148155</v>
+        <v>0.8431452172436656</v>
       </c>
       <c r="L18">
-        <v>0.9874810495069962</v>
+        <v>0.8459347755130112</v>
       </c>
       <c r="M18">
-        <v>0.9957548829255363</v>
+        <v>1.554610685168863</v>
       </c>
       <c r="N18">
-        <v>0.9957548829255363</v>
+        <v>1.554610685168863</v>
       </c>
       <c r="O18">
-        <v>1.00405913200528</v>
+        <v>1.443294212107544</v>
       </c>
       <c r="P18">
-        <v>1.004303555999742</v>
+        <v>1.317455529193797</v>
       </c>
       <c r="Q18">
-        <v>1.004303555999742</v>
+        <v>1.317455529193797</v>
       </c>
       <c r="R18">
-        <v>1.008577892536846</v>
+        <v>1.198877951206264</v>
       </c>
       <c r="S18">
-        <v>1.008577892536846</v>
+        <v>1.198877951206264</v>
       </c>
       <c r="T18">
-        <v>1.001969462584436</v>
+        <v>1.133414691351896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8035325152821686</v>
+      </c>
+      <c r="D19">
+        <v>0.9175228260583601</v>
+      </c>
+      <c r="E19">
+        <v>1.191381996999668</v>
+      </c>
+      <c r="F19">
+        <v>0.8792398502534035</v>
+      </c>
+      <c r="G19">
+        <v>0.8792398502534035</v>
+      </c>
+      <c r="H19">
+        <v>2.735537497787095</v>
+      </c>
+      <c r="I19">
+        <v>2.735537497787095</v>
+      </c>
+      <c r="J19">
+        <v>0.7586011723180288</v>
+      </c>
+      <c r="K19">
+        <v>0.8792398502534035</v>
+      </c>
+      <c r="L19">
+        <v>0.7586011723180288</v>
+      </c>
+      <c r="M19">
+        <v>1.747069335052562</v>
+      </c>
+      <c r="N19">
+        <v>1.747069335052562</v>
+      </c>
+      <c r="O19">
+        <v>1.561840222368264</v>
+      </c>
+      <c r="P19">
+        <v>1.457792840119509</v>
+      </c>
+      <c r="Q19">
+        <v>1.457792840119509</v>
+      </c>
+      <c r="R19">
+        <v>1.313154592652983</v>
+      </c>
+      <c r="S19">
+        <v>1.313154592652983</v>
+      </c>
+      <c r="T19">
+        <v>1.214302643116454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000124093439621</v>
+      </c>
+      <c r="D20">
+        <v>1.000955670047834</v>
+      </c>
+      <c r="E20">
+        <v>0.9997449601632612</v>
+      </c>
+      <c r="F20">
+        <v>0.9997059051785335</v>
+      </c>
+      <c r="G20">
+        <v>0.9997059051785335</v>
+      </c>
+      <c r="H20">
+        <v>1.001388565125089</v>
+      </c>
+      <c r="I20">
+        <v>1.001388565125089</v>
+      </c>
+      <c r="J20">
+        <v>1.000511249236278</v>
+      </c>
+      <c r="K20">
+        <v>0.9997059051785335</v>
+      </c>
+      <c r="L20">
+        <v>1.000511249236278</v>
+      </c>
+      <c r="M20">
+        <v>1.000949907180684</v>
+      </c>
+      <c r="N20">
+        <v>1.000949907180684</v>
+      </c>
+      <c r="O20">
+        <v>1.000548258174876</v>
+      </c>
+      <c r="P20">
+        <v>1.000535239846634</v>
+      </c>
+      <c r="Q20">
+        <v>1.000535239846634</v>
+      </c>
+      <c r="R20">
+        <v>1.000327906179609</v>
+      </c>
+      <c r="S20">
+        <v>1.000327906179609</v>
+      </c>
+      <c r="T20">
+        <v>1.000405073865103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9987747784750288</v>
+      </c>
+      <c r="D21">
+        <v>0.998875359681903</v>
+      </c>
+      <c r="E21">
+        <v>0.9991359530590324</v>
+      </c>
+      <c r="F21">
+        <v>0.9973561380932209</v>
+      </c>
+      <c r="G21">
+        <v>0.9973561380932209</v>
+      </c>
+      <c r="H21">
+        <v>1.020492707357621</v>
+      </c>
+      <c r="I21">
+        <v>1.020492707357621</v>
+      </c>
+      <c r="J21">
+        <v>0.9964585050587866</v>
+      </c>
+      <c r="K21">
+        <v>0.9973561380932209</v>
+      </c>
+      <c r="L21">
+        <v>0.9964585050587866</v>
+      </c>
+      <c r="M21">
+        <v>1.008475606208204</v>
+      </c>
+      <c r="N21">
+        <v>1.008475606208204</v>
+      </c>
+      <c r="O21">
+        <v>1.005362388491813</v>
+      </c>
+      <c r="P21">
+        <v>1.004769116836543</v>
+      </c>
+      <c r="Q21">
+        <v>1.004769116836543</v>
+      </c>
+      <c r="R21">
+        <v>1.002915872150712</v>
+      </c>
+      <c r="S21">
+        <v>1.002915872150712</v>
+      </c>
+      <c r="T21">
+        <v>1.001848906954265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9896061352236946</v>
+      </c>
+      <c r="D22">
+        <v>0.988632342118923</v>
+      </c>
+      <c r="E22">
+        <v>1.020667630164769</v>
+      </c>
+      <c r="F22">
+        <v>1.021400902148155</v>
+      </c>
+      <c r="G22">
+        <v>1.021400902148155</v>
+      </c>
+      <c r="H22">
+        <v>1.004028716344077</v>
+      </c>
+      <c r="I22">
+        <v>1.004028716344077</v>
+      </c>
+      <c r="J22">
+        <v>0.9874810495069956</v>
+      </c>
+      <c r="K22">
+        <v>1.021400902148155</v>
+      </c>
+      <c r="L22">
+        <v>0.9874810495069956</v>
+      </c>
+      <c r="M22">
+        <v>0.9957548829255363</v>
+      </c>
+      <c r="N22">
+        <v>0.9957548829255363</v>
+      </c>
+      <c r="O22">
+        <v>1.00405913200528</v>
+      </c>
+      <c r="P22">
+        <v>1.004303555999743</v>
+      </c>
+      <c r="Q22">
+        <v>1.004303555999743</v>
+      </c>
+      <c r="R22">
+        <v>1.008577892536846</v>
+      </c>
+      <c r="S22">
+        <v>1.008577892536846</v>
+      </c>
+      <c r="T22">
+        <v>1.001969462584436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9797861736530459</v>
+      </c>
+      <c r="D23">
+        <v>0.9713598657183141</v>
+      </c>
+      <c r="E23">
+        <v>1.040775664616288</v>
+      </c>
+      <c r="F23">
         <v>1.035322985398141</v>
       </c>
-      <c r="D19">
+      <c r="G23">
+        <v>1.035322985398141</v>
+      </c>
+      <c r="H23">
         <v>1.068369984068517</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.068369984068517</v>
+      </c>
+      <c r="J23">
         <v>0.9706681474745168</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.035322985398141</v>
       </c>
-      <c r="G19">
-        <v>0.9713598657183141</v>
-      </c>
-      <c r="H19">
-        <v>1.040775664616288</v>
-      </c>
-      <c r="I19">
-        <v>0.9797861736530459</v>
-      </c>
-      <c r="J19">
-        <v>1.068369984068517</v>
-      </c>
-      <c r="K19">
-        <v>1.035322985398141</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9706681474745168</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.019519065771517</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.019519065771517</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.026604598719774</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.024787038980392</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.024787038980392</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.027421025584829</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.027421025584829</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.011047136821471</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9706634237218303</v>
+        <v>0.8093337397490651</v>
       </c>
       <c r="D3">
-        <v>0.9609620346861698</v>
+        <v>0.7755156050393079</v>
       </c>
       <c r="E3">
-        <v>1.041454921632092</v>
+        <v>1.23525087103392</v>
       </c>
       <c r="F3">
-        <v>1.035947533675894</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="G3">
-        <v>1.035947533675894</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="H3">
-        <v>1.124540072658765</v>
+        <v>2.621741946768759</v>
       </c>
       <c r="I3">
-        <v>1.124540072658765</v>
+        <v>2.621741946768759</v>
       </c>
       <c r="J3">
-        <v>0.9592690725696471</v>
+        <v>0.8130331980208197</v>
       </c>
       <c r="K3">
-        <v>1.035947533675894</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="L3">
-        <v>0.9592690725696471</v>
+        <v>0.8130331980208197</v>
       </c>
       <c r="M3">
-        <v>1.041904572614206</v>
+        <v>1.71738757239479</v>
       </c>
       <c r="N3">
-        <v>1.041904572614206</v>
+        <v>1.71738757239479</v>
       </c>
       <c r="O3">
-        <v>1.041754688953501</v>
+        <v>1.556675338607833</v>
       </c>
       <c r="P3">
-        <v>1.039918892968102</v>
+        <v>1.423414766202051</v>
       </c>
       <c r="Q3">
-        <v>1.039918892968102</v>
+        <v>1.423414766202051</v>
       </c>
       <c r="R3">
-        <v>1.03892605314505</v>
+        <v>1.276428363105682</v>
       </c>
       <c r="S3">
-        <v>1.03892605314505</v>
+        <v>1.276428363105682</v>
       </c>
       <c r="T3">
-        <v>1.0154728431574</v>
+        <v>1.181724085738075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9448020523935499</v>
+        <v>0.8269865719062635</v>
       </c>
       <c r="D4">
-        <v>0.9223475600236296</v>
+        <v>0.7842106902428229</v>
       </c>
       <c r="E4">
-        <v>1.079748662427598</v>
+        <v>1.226993999220932</v>
       </c>
       <c r="F4">
-        <v>1.065006547477734</v>
+        <v>0.8318685463315432</v>
       </c>
       <c r="G4">
-        <v>1.065006547477734</v>
+        <v>0.8318685463315432</v>
       </c>
       <c r="H4">
-        <v>1.232367712158839</v>
+        <v>2.433649175699732</v>
       </c>
       <c r="I4">
-        <v>1.232367712158839</v>
+        <v>2.433649175699732</v>
       </c>
       <c r="J4">
-        <v>0.9221711735522164</v>
+        <v>0.8324766532054816</v>
       </c>
       <c r="K4">
-        <v>1.065006547477734</v>
+        <v>0.8318685463315432</v>
       </c>
       <c r="L4">
-        <v>0.9221711735522164</v>
+        <v>0.8324766532054816</v>
       </c>
       <c r="M4">
-        <v>1.077269442855528</v>
+        <v>1.633062914452607</v>
       </c>
       <c r="N4">
-        <v>1.077269442855528</v>
+        <v>1.633062914452607</v>
       </c>
       <c r="O4">
-        <v>1.078095849379551</v>
+        <v>1.497706609375382</v>
       </c>
       <c r="P4">
-        <v>1.07318181106293</v>
+        <v>1.365998125078919</v>
       </c>
       <c r="Q4">
-        <v>1.07318181106293</v>
+        <v>1.365998125078919</v>
       </c>
       <c r="R4">
-        <v>1.071137995166631</v>
+        <v>1.232465730392075</v>
       </c>
       <c r="S4">
-        <v>1.071137995166631</v>
+        <v>1.232465730392075</v>
       </c>
       <c r="T4">
-        <v>1.027740618005595</v>
+        <v>1.156030939434463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8914535673485634</v>
+        <v>0.7760909314226416</v>
       </c>
       <c r="D5">
-        <v>0.8576905826465991</v>
+        <v>0.7582264051632879</v>
       </c>
       <c r="E5">
-        <v>1.161835435331867</v>
+        <v>1.249898151377682</v>
       </c>
       <c r="F5">
-        <v>1.134411796161258</v>
+        <v>0.8441594711724996</v>
       </c>
       <c r="G5">
-        <v>1.134411796161258</v>
+        <v>0.8441594711724996</v>
       </c>
       <c r="H5">
-        <v>1.479802487016625</v>
+        <v>2.979714561912914</v>
       </c>
       <c r="I5">
-        <v>1.479802487016625</v>
+        <v>2.979714561912914</v>
       </c>
       <c r="J5">
-        <v>0.8530085348348329</v>
+        <v>0.7762564215708894</v>
       </c>
       <c r="K5">
-        <v>1.134411796161258</v>
+        <v>0.8441594711724996</v>
       </c>
       <c r="L5">
-        <v>0.8530085348348329</v>
+        <v>0.7762564215708894</v>
       </c>
       <c r="M5">
-        <v>1.166405510925729</v>
+        <v>1.877985491741902</v>
       </c>
       <c r="N5">
-        <v>1.166405510925729</v>
+        <v>1.877985491741902</v>
       </c>
       <c r="O5">
-        <v>1.164882152394441</v>
+        <v>1.668623044953829</v>
       </c>
       <c r="P5">
-        <v>1.155740939337572</v>
+        <v>1.533376818218768</v>
       </c>
       <c r="Q5">
-        <v>1.155740939337572</v>
+        <v>1.533376818218768</v>
       </c>
       <c r="R5">
-        <v>1.150408653543494</v>
+        <v>1.361072481457201</v>
       </c>
       <c r="S5">
-        <v>1.150408653543494</v>
+        <v>1.361072481457201</v>
       </c>
       <c r="T5">
-        <v>1.063033733889957</v>
+        <v>1.230724323769986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8123046903081417</v>
+        <v>0.7456809297954535</v>
       </c>
       <c r="D6">
-        <v>0.7567505821358729</v>
+        <v>0.7392379756576597</v>
       </c>
       <c r="E6">
-        <v>1.28433954173443</v>
+        <v>1.264308914161647</v>
       </c>
       <c r="F6">
-        <v>1.215986609931587</v>
+        <v>0.857692688351364</v>
       </c>
       <c r="G6">
-        <v>1.215986609931587</v>
+        <v>0.857692688351364</v>
       </c>
       <c r="H6">
-        <v>1.779270264447036</v>
+        <v>3.322517052410798</v>
       </c>
       <c r="I6">
-        <v>1.779270264447036</v>
+        <v>3.322517052410798</v>
       </c>
       <c r="J6">
-        <v>0.8690728096508618</v>
+        <v>0.7410311784829543</v>
       </c>
       <c r="K6">
-        <v>1.215986609931587</v>
+        <v>0.857692688351364</v>
       </c>
       <c r="L6">
-        <v>0.8690728096508618</v>
+        <v>0.7410311784829543</v>
       </c>
       <c r="M6">
-        <v>1.324171537048949</v>
+        <v>2.031774115446876</v>
       </c>
       <c r="N6">
-        <v>1.324171537048949</v>
+        <v>2.031774115446876</v>
       </c>
       <c r="O6">
-        <v>1.310894205277443</v>
+        <v>1.775952381685133</v>
       </c>
       <c r="P6">
-        <v>1.288109894676495</v>
+        <v>1.640413639748372</v>
       </c>
       <c r="Q6">
-        <v>1.288109894676495</v>
+        <v>1.640413639748372</v>
       </c>
       <c r="R6">
-        <v>1.270079073490268</v>
+        <v>1.44473340189912</v>
       </c>
       <c r="S6">
-        <v>1.270079073490268</v>
+        <v>1.44473340189912</v>
       </c>
       <c r="T6">
-        <v>1.119620749701322</v>
+        <v>1.278411456476646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987994197774274</v>
+        <v>0.8742126227488561</v>
       </c>
       <c r="D7">
-        <v>0.9986891455050806</v>
+        <v>2.859956235672776</v>
       </c>
       <c r="E7">
-        <v>1.000586749112117</v>
+        <v>0.519866262839953</v>
       </c>
       <c r="F7">
-        <v>0.9998445387582356</v>
+        <v>0.9803771529743639</v>
       </c>
       <c r="G7">
-        <v>0.9998445387582356</v>
+        <v>0.9803771529743639</v>
       </c>
       <c r="H7">
-        <v>1.014130254101859</v>
+        <v>1.127846434481504</v>
       </c>
       <c r="I7">
-        <v>1.014130254101859</v>
+        <v>1.127846434481504</v>
       </c>
       <c r="J7">
-        <v>0.9986670924592225</v>
+        <v>1.225514003117977</v>
       </c>
       <c r="K7">
-        <v>0.9998445387582356</v>
+        <v>0.9803771529743639</v>
       </c>
       <c r="L7">
-        <v>0.9986670924592225</v>
+        <v>1.225514003117977</v>
       </c>
       <c r="M7">
-        <v>1.006398673280541</v>
+        <v>1.176680218799741</v>
       </c>
       <c r="N7">
-        <v>1.006398673280541</v>
+        <v>1.176680218799741</v>
       </c>
       <c r="O7">
-        <v>1.004461365224399</v>
+        <v>0.9577422334798115</v>
       </c>
       <c r="P7">
-        <v>1.004213961773106</v>
+        <v>1.111245863524615</v>
       </c>
       <c r="Q7">
-        <v>1.004213961773106</v>
+        <v>1.111245863524615</v>
       </c>
       <c r="R7">
-        <v>1.003121606019388</v>
+        <v>1.078528685887052</v>
       </c>
       <c r="S7">
-        <v>1.003121606019388</v>
+        <v>1.078528685887052</v>
       </c>
       <c r="T7">
-        <v>1.001786199952323</v>
+        <v>1.264628785305905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967222373412145</v>
+        <v>0.8706310877795003</v>
       </c>
       <c r="D8">
-        <v>0.9965825019128847</v>
+        <v>2.845303050575723</v>
       </c>
       <c r="E8">
-        <v>1.001801085279408</v>
+        <v>0.5222278257175705</v>
       </c>
       <c r="F8">
-        <v>1.001263409090415</v>
+        <v>0.9897916330979725</v>
       </c>
       <c r="G8">
-        <v>1.001263409090415</v>
+        <v>0.9897916330979725</v>
       </c>
       <c r="H8">
-        <v>1.033121305678899</v>
+        <v>1.176448300163189</v>
       </c>
       <c r="I8">
-        <v>1.033121305678899</v>
+        <v>1.176448300163189</v>
       </c>
       <c r="J8">
-        <v>0.9964118959420472</v>
+        <v>1.218507660388504</v>
       </c>
       <c r="K8">
-        <v>1.001263409090415</v>
+        <v>0.9897916330979725</v>
       </c>
       <c r="L8">
-        <v>0.9964118959420472</v>
+        <v>1.218507660388504</v>
       </c>
       <c r="M8">
-        <v>1.014766600810473</v>
+        <v>1.197477980275846</v>
       </c>
       <c r="N8">
-        <v>1.014766600810473</v>
+        <v>1.197477980275846</v>
       </c>
       <c r="O8">
-        <v>1.010444762300118</v>
+        <v>0.9723945954230878</v>
       </c>
       <c r="P8">
-        <v>1.010265536903787</v>
+        <v>1.128249197883222</v>
       </c>
       <c r="Q8">
-        <v>1.010265536903787</v>
+        <v>1.128249197883222</v>
       </c>
       <c r="R8">
-        <v>1.008015004950444</v>
+        <v>1.093634806686909</v>
       </c>
       <c r="S8">
-        <v>1.008015004950444</v>
+        <v>1.093634806686909</v>
       </c>
       <c r="T8">
-        <v>1.004317072540811</v>
+        <v>1.270484926287077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.996086431521766</v>
+        <v>0.86774758361323</v>
       </c>
       <c r="D9">
-        <v>0.993141193761038</v>
+        <v>2.836921526050675</v>
       </c>
       <c r="E9">
-        <v>1.002205300011038</v>
+        <v>0.5238676721140415</v>
       </c>
       <c r="F9">
-        <v>1.004585004023049</v>
+        <v>0.9894689167453813</v>
       </c>
       <c r="G9">
-        <v>1.004585004023049</v>
+        <v>0.9894689167453813</v>
       </c>
       <c r="H9">
-        <v>1.039525649056005</v>
+        <v>1.232206114167896</v>
       </c>
       <c r="I9">
-        <v>1.039525649056005</v>
+        <v>1.232206114167896</v>
       </c>
       <c r="J9">
-        <v>0.9951972550421428</v>
+        <v>1.213216290726117</v>
       </c>
       <c r="K9">
-        <v>1.004585004023049</v>
+        <v>0.9894689167453813</v>
       </c>
       <c r="L9">
-        <v>0.9951972550421428</v>
+        <v>1.213216290726117</v>
       </c>
       <c r="M9">
-        <v>1.017361452049074</v>
+        <v>1.222711202447007</v>
       </c>
       <c r="N9">
-        <v>1.017361452049074</v>
+        <v>1.222711202447007</v>
       </c>
       <c r="O9">
-        <v>1.012309401369729</v>
+        <v>0.9897633590026849</v>
       </c>
       <c r="P9">
-        <v>1.013102636040399</v>
+        <v>1.144963773879798</v>
       </c>
       <c r="Q9">
-        <v>1.013102636040399</v>
+        <v>1.144963773879798</v>
       </c>
       <c r="R9">
-        <v>1.010973228036061</v>
+        <v>1.106090059596194</v>
       </c>
       <c r="S9">
-        <v>1.010973228036061</v>
+        <v>1.106090059596194</v>
       </c>
       <c r="T9">
-        <v>1.00512347223584</v>
+        <v>1.277238017236223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9916798347318277</v>
+        <v>0.8610286887212109</v>
       </c>
       <c r="D10">
-        <v>0.9874039316985757</v>
+        <v>2.799409636054891</v>
       </c>
       <c r="E10">
-        <v>1.004320661086227</v>
+        <v>0.520935731949086</v>
       </c>
       <c r="F10">
-        <v>1.006331822938018</v>
+        <v>1.047113834800642</v>
       </c>
       <c r="G10">
-        <v>1.006331822938018</v>
+        <v>1.047113834800642</v>
       </c>
       <c r="H10">
-        <v>1.094312130144723</v>
+        <v>1.320843045456839</v>
       </c>
       <c r="I10">
-        <v>1.094312130144723</v>
+        <v>1.320843045456839</v>
       </c>
       <c r="J10">
-        <v>0.9909104891386891</v>
+        <v>1.194734724475434</v>
       </c>
       <c r="K10">
-        <v>1.006331822938018</v>
+        <v>1.047113834800642</v>
       </c>
       <c r="L10">
-        <v>0.9909104891386891</v>
+        <v>1.194734724475434</v>
       </c>
       <c r="M10">
-        <v>1.042611309641706</v>
+        <v>1.257788884966137</v>
       </c>
       <c r="N10">
-        <v>1.042611309641706</v>
+        <v>1.257788884966137</v>
       </c>
       <c r="O10">
-        <v>1.029847760123213</v>
+        <v>1.012171167293786</v>
       </c>
       <c r="P10">
-        <v>1.030518147407143</v>
+        <v>1.187563868244305</v>
       </c>
       <c r="Q10">
-        <v>1.030518147407143</v>
+        <v>1.187563868244305</v>
       </c>
       <c r="R10">
-        <v>1.024471566289862</v>
+        <v>1.152451359883389</v>
       </c>
       <c r="S10">
-        <v>1.024471566289862</v>
+        <v>1.152451359883389</v>
       </c>
       <c r="T10">
-        <v>1.012493144956343</v>
+        <v>1.290677610243017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9842913267171939</v>
+        <v>0.9714399863265625</v>
       </c>
       <c r="D11">
-        <v>0.9818799329941078</v>
+        <v>0.9539684154089599</v>
       </c>
       <c r="E11">
-        <v>1.010532430742616</v>
+        <v>1.042460684041012</v>
       </c>
       <c r="F11">
-        <v>1.02258356614374</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="G11">
-        <v>1.02258356614374</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="H11">
-        <v>1.141008840450393</v>
+        <v>1.112212905354441</v>
       </c>
       <c r="I11">
-        <v>1.141008840450393</v>
+        <v>1.112212905354441</v>
       </c>
       <c r="J11">
-        <v>0.9808943549338788</v>
+        <v>0.9609740696473856</v>
       </c>
       <c r="K11">
-        <v>1.02258356614374</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="L11">
-        <v>0.9808943549338788</v>
+        <v>0.9609740696473856</v>
       </c>
       <c r="M11">
-        <v>1.060951597692136</v>
+        <v>1.036593487500913</v>
       </c>
       <c r="N11">
-        <v>1.060951597692136</v>
+        <v>1.036593487500913</v>
       </c>
       <c r="O11">
-        <v>1.044145208708962</v>
+        <v>1.038549219680946</v>
       </c>
       <c r="P11">
-        <v>1.048162253842671</v>
+        <v>1.035389980793531</v>
       </c>
       <c r="Q11">
-        <v>1.048162253842671</v>
+        <v>1.035389980793531</v>
       </c>
       <c r="R11">
-        <v>1.041767581917938</v>
+        <v>1.03478822743984</v>
       </c>
       <c r="S11">
-        <v>1.041767581917938</v>
+        <v>1.03478822743984</v>
       </c>
       <c r="T11">
-        <v>1.020198408663655</v>
+        <v>1.012339838026188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.141002669141212</v>
+        <v>0.9854420876281335</v>
       </c>
       <c r="D12">
-        <v>0.06967064365367504</v>
+        <v>0.9907419108037154</v>
       </c>
       <c r="E12">
-        <v>0.8761457003203269</v>
+        <v>1.017582686727901</v>
       </c>
       <c r="F12">
-        <v>2.479441576350061</v>
+        <v>1.01778135971212</v>
       </c>
       <c r="G12">
-        <v>2.479441576350061</v>
+        <v>1.01778135971212</v>
       </c>
       <c r="H12">
-        <v>0.08778695144993871</v>
+        <v>1.062124030872351</v>
       </c>
       <c r="I12">
-        <v>0.08778695144993871</v>
+        <v>1.062124030872351</v>
       </c>
       <c r="J12">
-        <v>0.4796082259608624</v>
+        <v>0.9804209162931025</v>
       </c>
       <c r="K12">
-        <v>2.479441576350061</v>
+        <v>1.01778135971212</v>
       </c>
       <c r="L12">
-        <v>0.4796082259608624</v>
+        <v>0.9804209162931025</v>
       </c>
       <c r="M12">
-        <v>0.2836975887054006</v>
+        <v>1.021272473582727</v>
       </c>
       <c r="N12">
-        <v>0.2836975887054006</v>
+        <v>1.021272473582727</v>
       </c>
       <c r="O12">
-        <v>0.4811802925770427</v>
+        <v>1.020042544631118</v>
       </c>
       <c r="P12">
-        <v>1.015612251253621</v>
+        <v>1.020108768959191</v>
       </c>
       <c r="Q12">
-        <v>1.015612251253621</v>
+        <v>1.020108768959191</v>
       </c>
       <c r="R12">
-        <v>1.381569582527731</v>
+        <v>1.019526916647423</v>
       </c>
       <c r="S12">
-        <v>1.381569582527731</v>
+        <v>1.019526916647423</v>
       </c>
       <c r="T12">
-        <v>0.855609294479346</v>
+        <v>1.009015498672887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.081911017530356</v>
+        <v>0.9503345814381209</v>
       </c>
       <c r="D13">
-        <v>1.232729222069633</v>
+        <v>0.9700331460968881</v>
       </c>
       <c r="E13">
-        <v>0.824156571401244</v>
+        <v>1.059614199187251</v>
       </c>
       <c r="F13">
-        <v>0.3204352799556485</v>
+        <v>1.071649572975438</v>
       </c>
       <c r="G13">
-        <v>0.3204352799556485</v>
+        <v>1.071649572975438</v>
       </c>
       <c r="H13">
-        <v>1.050513637667589</v>
+        <v>1.211324841472744</v>
       </c>
       <c r="I13">
-        <v>1.050513637667589</v>
+        <v>1.211324841472744</v>
       </c>
       <c r="J13">
-        <v>1.452558459160359</v>
+        <v>0.9220415045209387</v>
       </c>
       <c r="K13">
-        <v>0.3204352799556485</v>
+        <v>1.071649572975438</v>
       </c>
       <c r="L13">
-        <v>1.452558459160359</v>
+        <v>0.9220415045209387</v>
       </c>
       <c r="M13">
-        <v>1.251536048413974</v>
+        <v>1.066683172996841</v>
       </c>
       <c r="N13">
-        <v>1.251536048413974</v>
+        <v>1.066683172996841</v>
       </c>
       <c r="O13">
-        <v>1.109076222743064</v>
+        <v>1.064326848393644</v>
       </c>
       <c r="P13">
-        <v>0.9411691255945321</v>
+        <v>1.068338639656373</v>
       </c>
       <c r="Q13">
-        <v>0.9411691255945321</v>
+        <v>1.068338639656374</v>
       </c>
       <c r="R13">
-        <v>0.7859856641848113</v>
+        <v>1.06916637298614</v>
       </c>
       <c r="S13">
-        <v>0.7859856641848113</v>
+        <v>1.06916637298614</v>
       </c>
       <c r="T13">
-        <v>0.9937173646308048</v>
+        <v>1.030832974281897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.321770894541482</v>
+        <v>0.9220303281612515</v>
       </c>
       <c r="D14">
-        <v>1.77664282667386</v>
+        <v>0.8909324347477892</v>
       </c>
       <c r="E14">
-        <v>0.5011461361531316</v>
+        <v>1.111733810452195</v>
       </c>
       <c r="F14">
-        <v>0.3218564699133816</v>
+        <v>1.092549744468216</v>
       </c>
       <c r="G14">
-        <v>0.3218564699133816</v>
+        <v>1.092549744468216</v>
       </c>
       <c r="H14">
-        <v>0.08773681506704098</v>
+        <v>1.344137205210198</v>
       </c>
       <c r="I14">
-        <v>0.08773681506704098</v>
+        <v>1.344137205210198</v>
       </c>
       <c r="J14">
-        <v>1.427669694193637</v>
+        <v>0.8882646402629532</v>
       </c>
       <c r="K14">
-        <v>0.3218564699133816</v>
+        <v>1.092549744468216</v>
       </c>
       <c r="L14">
-        <v>1.427669694193637</v>
+        <v>0.8882646402629532</v>
       </c>
       <c r="M14">
-        <v>0.7577032546303391</v>
+        <v>1.116200922736576</v>
       </c>
       <c r="N14">
-        <v>0.7577032546303391</v>
+        <v>1.116200922736576</v>
       </c>
       <c r="O14">
-        <v>0.6721842151379366</v>
+        <v>1.114711885308449</v>
       </c>
       <c r="P14">
-        <v>0.6124209930580199</v>
+        <v>1.108317196647122</v>
       </c>
       <c r="Q14">
-        <v>0.6124209930580199</v>
+        <v>1.108317196647122</v>
       </c>
       <c r="R14">
-        <v>0.5397798622718603</v>
+        <v>1.104375333602396</v>
       </c>
       <c r="S14">
-        <v>0.5397798622718603</v>
+        <v>1.104375333602396</v>
       </c>
       <c r="T14">
-        <v>0.9061371394237554</v>
+        <v>1.0416080272171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8381313218092414</v>
+        <v>0.9706634237218303</v>
       </c>
       <c r="D15">
-        <v>1.386083954800664</v>
+        <v>0.9609620346861698</v>
       </c>
       <c r="E15">
-        <v>1.084522476290895</v>
+        <v>1.041454921632092</v>
       </c>
       <c r="F15">
-        <v>1.715653053211375</v>
+        <v>1.035947533675894</v>
       </c>
       <c r="G15">
-        <v>1.715653053211375</v>
+        <v>1.035947533675894</v>
       </c>
       <c r="H15">
-        <v>1.045772899733438</v>
+        <v>1.124540072658765</v>
       </c>
       <c r="I15">
-        <v>1.045772899733438</v>
+        <v>1.124540072658765</v>
       </c>
       <c r="J15">
-        <v>0.6616939008335981</v>
+        <v>0.9592690725696471</v>
       </c>
       <c r="K15">
-        <v>1.715653053211375</v>
+        <v>1.035947533675894</v>
       </c>
       <c r="L15">
-        <v>0.6616939008335981</v>
+        <v>0.9592690725696471</v>
       </c>
       <c r="M15">
-        <v>0.853733400283518</v>
+        <v>1.041904572614206</v>
       </c>
       <c r="N15">
-        <v>0.853733400283518</v>
+        <v>1.041904572614206</v>
       </c>
       <c r="O15">
-        <v>0.930663092285977</v>
+        <v>1.041754688953501</v>
       </c>
       <c r="P15">
-        <v>1.14103995125947</v>
+        <v>1.039918892968102</v>
       </c>
       <c r="Q15">
-        <v>1.14103995125947</v>
+        <v>1.039918892968102</v>
       </c>
       <c r="R15">
-        <v>1.284693226747446</v>
+        <v>1.03892605314505</v>
       </c>
       <c r="S15">
-        <v>1.284693226747446</v>
+        <v>1.03892605314505</v>
       </c>
       <c r="T15">
-        <v>1.121976267779868</v>
+        <v>1.0154728431574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4697699386410328</v>
+        <v>0.9448020523935499</v>
       </c>
       <c r="D16">
-        <v>0.1980988164075445</v>
+        <v>0.9223475600236296</v>
       </c>
       <c r="E16">
-        <v>1.792531374112847</v>
+        <v>1.079748662427598</v>
       </c>
       <c r="F16">
-        <v>1.566343856100662</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="G16">
-        <v>1.566343856100662</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="H16">
-        <v>3.280533012305478</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="I16">
-        <v>3.280533012305478</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="J16">
-        <v>0.2602319352210364</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="K16">
-        <v>1.566343856100662</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="L16">
-        <v>0.2602319352210364</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="M16">
-        <v>1.770382473763257</v>
+        <v>1.077269442855528</v>
       </c>
       <c r="N16">
-        <v>1.770382473763257</v>
+        <v>1.077269442855528</v>
       </c>
       <c r="O16">
-        <v>1.777765440546453</v>
+        <v>1.078095849379551</v>
       </c>
       <c r="P16">
-        <v>1.702369601209059</v>
+        <v>1.07318181106293</v>
       </c>
       <c r="Q16">
-        <v>1.702369601209059</v>
+        <v>1.07318181106293</v>
       </c>
       <c r="R16">
-        <v>1.66836316493196</v>
+        <v>1.071137995166631</v>
       </c>
       <c r="S16">
-        <v>1.66836316493196</v>
+        <v>1.071137995166631</v>
       </c>
       <c r="T16">
-        <v>1.2612514887981</v>
+        <v>1.027740618005595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5934901686615524</v>
+        <v>0.8914535673485634</v>
       </c>
       <c r="D17">
-        <v>0.3944329942288726</v>
+        <v>0.8576905826465991</v>
       </c>
       <c r="E17">
-        <v>1.60178989559244</v>
+        <v>1.161835435331867</v>
       </c>
       <c r="F17">
-        <v>1.323030638709718</v>
+        <v>1.134411796161258</v>
       </c>
       <c r="G17">
-        <v>1.323030638709718</v>
+        <v>1.134411796161258</v>
       </c>
       <c r="H17">
-        <v>2.946946932122944</v>
+        <v>1.479802487016625</v>
       </c>
       <c r="I17">
-        <v>2.946946932122944</v>
+        <v>1.479802487016625</v>
       </c>
       <c r="J17">
-        <v>0.4557009699635395</v>
+        <v>0.8530085348348329</v>
       </c>
       <c r="K17">
-        <v>1.323030638709718</v>
+        <v>1.134411796161258</v>
       </c>
       <c r="L17">
-        <v>0.4557009699635395</v>
+        <v>0.8530085348348329</v>
       </c>
       <c r="M17">
-        <v>1.701323951043242</v>
+        <v>1.166405510925729</v>
       </c>
       <c r="N17">
-        <v>1.701323951043242</v>
+        <v>1.166405510925729</v>
       </c>
       <c r="O17">
-        <v>1.668145932559641</v>
+        <v>1.164882152394441</v>
       </c>
       <c r="P17">
-        <v>1.5752261802654</v>
+        <v>1.155740939337572</v>
       </c>
       <c r="Q17">
-        <v>1.5752261802654</v>
+        <v>1.155740939337572</v>
       </c>
       <c r="R17">
-        <v>1.51217729487648</v>
+        <v>1.150408653543494</v>
       </c>
       <c r="S17">
-        <v>1.51217729487648</v>
+        <v>1.150408653543494</v>
       </c>
       <c r="T17">
-        <v>1.219231933213178</v>
+        <v>1.063033733889957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8410549643134161</v>
+        <v>0.8123046903081417</v>
       </c>
       <c r="D18">
-        <v>0.7864053302316591</v>
+        <v>0.7567505821358729</v>
       </c>
       <c r="E18">
-        <v>1.220661265984908</v>
+        <v>1.28433954173443</v>
       </c>
       <c r="F18">
-        <v>0.8431452172436656</v>
+        <v>1.215986609931587</v>
       </c>
       <c r="G18">
-        <v>0.8431452172436656</v>
+        <v>1.215986609931587</v>
       </c>
       <c r="H18">
-        <v>2.263286594824714</v>
+        <v>1.779270264447036</v>
       </c>
       <c r="I18">
-        <v>2.263286594824714</v>
+        <v>1.779270264447036</v>
       </c>
       <c r="J18">
-        <v>0.8459347755130112</v>
+        <v>0.8690728096508618</v>
       </c>
       <c r="K18">
-        <v>0.8431452172436656</v>
+        <v>1.215986609931587</v>
       </c>
       <c r="L18">
-        <v>0.8459347755130112</v>
+        <v>0.8690728096508618</v>
       </c>
       <c r="M18">
-        <v>1.554610685168863</v>
+        <v>1.324171537048949</v>
       </c>
       <c r="N18">
-        <v>1.554610685168863</v>
+        <v>1.324171537048949</v>
       </c>
       <c r="O18">
-        <v>1.443294212107544</v>
+        <v>1.310894205277443</v>
       </c>
       <c r="P18">
-        <v>1.317455529193797</v>
+        <v>1.288109894676495</v>
       </c>
       <c r="Q18">
-        <v>1.317455529193797</v>
+        <v>1.288109894676495</v>
       </c>
       <c r="R18">
-        <v>1.198877951206264</v>
+        <v>1.270079073490268</v>
       </c>
       <c r="S18">
-        <v>1.198877951206264</v>
+        <v>1.270079073490268</v>
       </c>
       <c r="T18">
-        <v>1.133414691351896</v>
+        <v>1.119620749701322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8035325152821686</v>
+        <v>0.9987994197774274</v>
       </c>
       <c r="D19">
-        <v>0.9175228260583601</v>
+        <v>0.9986891455050806</v>
       </c>
       <c r="E19">
-        <v>1.191381996999668</v>
+        <v>1.000586749112117</v>
       </c>
       <c r="F19">
-        <v>0.8792398502534035</v>
+        <v>0.9998445387582356</v>
       </c>
       <c r="G19">
-        <v>0.8792398502534035</v>
+        <v>0.9998445387582356</v>
       </c>
       <c r="H19">
-        <v>2.735537497787095</v>
+        <v>1.014130254101859</v>
       </c>
       <c r="I19">
-        <v>2.735537497787095</v>
+        <v>1.014130254101859</v>
       </c>
       <c r="J19">
-        <v>0.7586011723180288</v>
+        <v>0.9986670924592225</v>
       </c>
       <c r="K19">
-        <v>0.8792398502534035</v>
+        <v>0.9998445387582356</v>
       </c>
       <c r="L19">
-        <v>0.7586011723180288</v>
+        <v>0.9986670924592225</v>
       </c>
       <c r="M19">
-        <v>1.747069335052562</v>
+        <v>1.006398673280541</v>
       </c>
       <c r="N19">
-        <v>1.747069335052562</v>
+        <v>1.006398673280541</v>
       </c>
       <c r="O19">
-        <v>1.561840222368264</v>
+        <v>1.004461365224399</v>
       </c>
       <c r="P19">
-        <v>1.457792840119509</v>
+        <v>1.004213961773106</v>
       </c>
       <c r="Q19">
-        <v>1.457792840119509</v>
+        <v>1.004213961773106</v>
       </c>
       <c r="R19">
-        <v>1.313154592652983</v>
+        <v>1.003121606019388</v>
       </c>
       <c r="S19">
-        <v>1.313154592652983</v>
+        <v>1.003121606019388</v>
       </c>
       <c r="T19">
-        <v>1.214302643116454</v>
+        <v>1.001786199952323</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000124093439621</v>
+        <v>0.9967222373412145</v>
       </c>
       <c r="D20">
-        <v>1.000955670047834</v>
+        <v>0.9965825019128847</v>
       </c>
       <c r="E20">
-        <v>0.9997449601632612</v>
+        <v>1.001801085279408</v>
       </c>
       <c r="F20">
-        <v>0.9997059051785335</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="G20">
-        <v>0.9997059051785335</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="H20">
-        <v>1.001388565125089</v>
+        <v>1.033121305678899</v>
       </c>
       <c r="I20">
-        <v>1.001388565125089</v>
+        <v>1.033121305678899</v>
       </c>
       <c r="J20">
-        <v>1.000511249236278</v>
+        <v>0.9964118959420472</v>
       </c>
       <c r="K20">
-        <v>0.9997059051785335</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="L20">
-        <v>1.000511249236278</v>
+        <v>0.9964118959420472</v>
       </c>
       <c r="M20">
-        <v>1.000949907180684</v>
+        <v>1.014766600810473</v>
       </c>
       <c r="N20">
-        <v>1.000949907180684</v>
+        <v>1.014766600810473</v>
       </c>
       <c r="O20">
-        <v>1.000548258174876</v>
+        <v>1.010444762300118</v>
       </c>
       <c r="P20">
-        <v>1.000535239846634</v>
+        <v>1.010265536903787</v>
       </c>
       <c r="Q20">
-        <v>1.000535239846634</v>
+        <v>1.010265536903787</v>
       </c>
       <c r="R20">
-        <v>1.000327906179609</v>
+        <v>1.008015004950444</v>
       </c>
       <c r="S20">
-        <v>1.000327906179609</v>
+        <v>1.008015004950444</v>
       </c>
       <c r="T20">
-        <v>1.000405073865103</v>
+        <v>1.004317072540811</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9987747784750288</v>
+        <v>0.996086431521766</v>
       </c>
       <c r="D21">
-        <v>0.998875359681903</v>
+        <v>0.993141193761038</v>
       </c>
       <c r="E21">
-        <v>0.9991359530590324</v>
+        <v>1.002205300011038</v>
       </c>
       <c r="F21">
-        <v>0.9973561380932209</v>
+        <v>1.004585004023049</v>
       </c>
       <c r="G21">
-        <v>0.9973561380932209</v>
+        <v>1.004585004023049</v>
       </c>
       <c r="H21">
-        <v>1.020492707357621</v>
+        <v>1.039525649056005</v>
       </c>
       <c r="I21">
-        <v>1.020492707357621</v>
+        <v>1.039525649056005</v>
       </c>
       <c r="J21">
-        <v>0.9964585050587866</v>
+        <v>0.9951972550421428</v>
       </c>
       <c r="K21">
-        <v>0.9973561380932209</v>
+        <v>1.004585004023049</v>
       </c>
       <c r="L21">
-        <v>0.9964585050587866</v>
+        <v>0.9951972550421428</v>
       </c>
       <c r="M21">
-        <v>1.008475606208204</v>
+        <v>1.017361452049074</v>
       </c>
       <c r="N21">
-        <v>1.008475606208204</v>
+        <v>1.017361452049074</v>
       </c>
       <c r="O21">
-        <v>1.005362388491813</v>
+        <v>1.012309401369729</v>
       </c>
       <c r="P21">
-        <v>1.004769116836543</v>
+        <v>1.013102636040399</v>
       </c>
       <c r="Q21">
-        <v>1.004769116836543</v>
+        <v>1.013102636040399</v>
       </c>
       <c r="R21">
-        <v>1.002915872150712</v>
+        <v>1.010973228036061</v>
       </c>
       <c r="S21">
-        <v>1.002915872150712</v>
+        <v>1.010973228036061</v>
       </c>
       <c r="T21">
-        <v>1.001848906954265</v>
+        <v>1.00512347223584</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9896061352236946</v>
+        <v>0.9916798347318277</v>
       </c>
       <c r="D22">
-        <v>0.988632342118923</v>
+        <v>0.9874039316985757</v>
       </c>
       <c r="E22">
-        <v>1.020667630164769</v>
+        <v>1.004320661086227</v>
       </c>
       <c r="F22">
-        <v>1.021400902148155</v>
+        <v>1.006331822938018</v>
       </c>
       <c r="G22">
-        <v>1.021400902148155</v>
+        <v>1.006331822938018</v>
       </c>
       <c r="H22">
-        <v>1.004028716344077</v>
+        <v>1.094312130144723</v>
       </c>
       <c r="I22">
-        <v>1.004028716344077</v>
+        <v>1.094312130144723</v>
       </c>
       <c r="J22">
-        <v>0.9874810495069956</v>
+        <v>0.9909104891386891</v>
       </c>
       <c r="K22">
-        <v>1.021400902148155</v>
+        <v>1.006331822938018</v>
       </c>
       <c r="L22">
-        <v>0.9874810495069956</v>
+        <v>0.9909104891386891</v>
       </c>
       <c r="M22">
-        <v>0.9957548829255363</v>
+        <v>1.042611309641706</v>
       </c>
       <c r="N22">
-        <v>0.9957548829255363</v>
+        <v>1.042611309641706</v>
       </c>
       <c r="O22">
-        <v>1.00405913200528</v>
+        <v>1.029847760123213</v>
       </c>
       <c r="P22">
-        <v>1.004303555999743</v>
+        <v>1.030518147407143</v>
       </c>
       <c r="Q22">
-        <v>1.004303555999743</v>
+        <v>1.030518147407143</v>
       </c>
       <c r="R22">
-        <v>1.008577892536846</v>
+        <v>1.024471566289862</v>
       </c>
       <c r="S22">
-        <v>1.008577892536846</v>
+        <v>1.024471566289862</v>
       </c>
       <c r="T22">
-        <v>1.001969462584436</v>
+        <v>1.012493144956343</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9842913267171939</v>
+      </c>
+      <c r="D23">
+        <v>0.9818799329941078</v>
+      </c>
+      <c r="E23">
+        <v>1.010532430742616</v>
+      </c>
+      <c r="F23">
+        <v>1.02258356614374</v>
+      </c>
+      <c r="G23">
+        <v>1.02258356614374</v>
+      </c>
+      <c r="H23">
+        <v>1.141008840450393</v>
+      </c>
+      <c r="I23">
+        <v>1.141008840450393</v>
+      </c>
+      <c r="J23">
+        <v>0.9808943549338788</v>
+      </c>
+      <c r="K23">
+        <v>1.02258356614374</v>
+      </c>
+      <c r="L23">
+        <v>0.9808943549338788</v>
+      </c>
+      <c r="M23">
+        <v>1.060951597692136</v>
+      </c>
+      <c r="N23">
+        <v>1.060951597692136</v>
+      </c>
+      <c r="O23">
+        <v>1.044145208708962</v>
+      </c>
+      <c r="P23">
+        <v>1.048162253842671</v>
+      </c>
+      <c r="Q23">
+        <v>1.048162253842671</v>
+      </c>
+      <c r="R23">
+        <v>1.041767581917938</v>
+      </c>
+      <c r="S23">
+        <v>1.041767581917938</v>
+      </c>
+      <c r="T23">
+        <v>1.020198408663655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.141002669141212</v>
+      </c>
+      <c r="D24">
+        <v>0.06967064365367504</v>
+      </c>
+      <c r="E24">
+        <v>0.8761457003203269</v>
+      </c>
+      <c r="F24">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="G24">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="H24">
+        <v>0.08778695144993871</v>
+      </c>
+      <c r="I24">
+        <v>0.08778695144993871</v>
+      </c>
+      <c r="J24">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="K24">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="L24">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="M24">
+        <v>0.2836975887054006</v>
+      </c>
+      <c r="N24">
+        <v>0.2836975887054006</v>
+      </c>
+      <c r="O24">
+        <v>0.4811802925770427</v>
+      </c>
+      <c r="P24">
+        <v>1.015612251253621</v>
+      </c>
+      <c r="Q24">
+        <v>1.015612251253621</v>
+      </c>
+      <c r="R24">
+        <v>1.381569582527731</v>
+      </c>
+      <c r="S24">
+        <v>1.381569582527731</v>
+      </c>
+      <c r="T24">
+        <v>0.855609294479346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.081911017530356</v>
+      </c>
+      <c r="D25">
+        <v>1.232729222069633</v>
+      </c>
+      <c r="E25">
+        <v>0.824156571401244</v>
+      </c>
+      <c r="F25">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="G25">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="H25">
+        <v>1.050513637667589</v>
+      </c>
+      <c r="I25">
+        <v>1.050513637667589</v>
+      </c>
+      <c r="J25">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="K25">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="L25">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="M25">
+        <v>1.251536048413974</v>
+      </c>
+      <c r="N25">
+        <v>1.251536048413974</v>
+      </c>
+      <c r="O25">
+        <v>1.109076222743064</v>
+      </c>
+      <c r="P25">
+        <v>0.9411691255945321</v>
+      </c>
+      <c r="Q25">
+        <v>0.9411691255945321</v>
+      </c>
+      <c r="R25">
+        <v>0.7859856641848113</v>
+      </c>
+      <c r="S25">
+        <v>0.7859856641848113</v>
+      </c>
+      <c r="T25">
+        <v>0.9937173646308048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.321770894541482</v>
+      </c>
+      <c r="D26">
+        <v>1.77664282667386</v>
+      </c>
+      <c r="E26">
+        <v>0.5011461361531316</v>
+      </c>
+      <c r="F26">
+        <v>0.3218564699133816</v>
+      </c>
+      <c r="G26">
+        <v>0.3218564699133816</v>
+      </c>
+      <c r="H26">
+        <v>0.08773681506704098</v>
+      </c>
+      <c r="I26">
+        <v>0.08773681506704098</v>
+      </c>
+      <c r="J26">
+        <v>1.427669694193637</v>
+      </c>
+      <c r="K26">
+        <v>0.3218564699133816</v>
+      </c>
+      <c r="L26">
+        <v>1.427669694193637</v>
+      </c>
+      <c r="M26">
+        <v>0.7577032546303391</v>
+      </c>
+      <c r="N26">
+        <v>0.7577032546303391</v>
+      </c>
+      <c r="O26">
+        <v>0.6721842151379366</v>
+      </c>
+      <c r="P26">
+        <v>0.6124209930580199</v>
+      </c>
+      <c r="Q26">
+        <v>0.6124209930580199</v>
+      </c>
+      <c r="R26">
+        <v>0.5397798622718603</v>
+      </c>
+      <c r="S26">
+        <v>0.5397798622718603</v>
+      </c>
+      <c r="T26">
+        <v>0.9061371394237554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8381313218092414</v>
+      </c>
+      <c r="D27">
+        <v>1.386083954800664</v>
+      </c>
+      <c r="E27">
+        <v>1.084522476290895</v>
+      </c>
+      <c r="F27">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="G27">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="H27">
+        <v>1.045772899733438</v>
+      </c>
+      <c r="I27">
+        <v>1.045772899733438</v>
+      </c>
+      <c r="J27">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="K27">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="L27">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="M27">
+        <v>0.853733400283518</v>
+      </c>
+      <c r="N27">
+        <v>0.853733400283518</v>
+      </c>
+      <c r="O27">
+        <v>0.930663092285977</v>
+      </c>
+      <c r="P27">
+        <v>1.14103995125947</v>
+      </c>
+      <c r="Q27">
+        <v>1.14103995125947</v>
+      </c>
+      <c r="R27">
+        <v>1.284693226747446</v>
+      </c>
+      <c r="S27">
+        <v>1.284693226747446</v>
+      </c>
+      <c r="T27">
+        <v>1.121976267779868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.4697699386410328</v>
+      </c>
+      <c r="D28">
+        <v>0.1980988164075445</v>
+      </c>
+      <c r="E28">
+        <v>1.792531374112847</v>
+      </c>
+      <c r="F28">
+        <v>1.566343856100662</v>
+      </c>
+      <c r="G28">
+        <v>1.566343856100662</v>
+      </c>
+      <c r="H28">
+        <v>3.280533012305478</v>
+      </c>
+      <c r="I28">
+        <v>3.280533012305478</v>
+      </c>
+      <c r="J28">
+        <v>0.2602319352210364</v>
+      </c>
+      <c r="K28">
+        <v>1.566343856100662</v>
+      </c>
+      <c r="L28">
+        <v>0.2602319352210364</v>
+      </c>
+      <c r="M28">
+        <v>1.770382473763257</v>
+      </c>
+      <c r="N28">
+        <v>1.770382473763257</v>
+      </c>
+      <c r="O28">
+        <v>1.777765440546453</v>
+      </c>
+      <c r="P28">
+        <v>1.702369601209059</v>
+      </c>
+      <c r="Q28">
+        <v>1.702369601209059</v>
+      </c>
+      <c r="R28">
+        <v>1.66836316493196</v>
+      </c>
+      <c r="S28">
+        <v>1.66836316493196</v>
+      </c>
+      <c r="T28">
+        <v>1.2612514887981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.5934901686615524</v>
+      </c>
+      <c r="D29">
+        <v>0.3944329942288726</v>
+      </c>
+      <c r="E29">
+        <v>1.60178989559244</v>
+      </c>
+      <c r="F29">
+        <v>1.323030638709718</v>
+      </c>
+      <c r="G29">
+        <v>1.323030638709718</v>
+      </c>
+      <c r="H29">
+        <v>2.946946932122944</v>
+      </c>
+      <c r="I29">
+        <v>2.946946932122944</v>
+      </c>
+      <c r="J29">
+        <v>0.4557009699635395</v>
+      </c>
+      <c r="K29">
+        <v>1.323030638709718</v>
+      </c>
+      <c r="L29">
+        <v>0.4557009699635395</v>
+      </c>
+      <c r="M29">
+        <v>1.701323951043242</v>
+      </c>
+      <c r="N29">
+        <v>1.701323951043242</v>
+      </c>
+      <c r="O29">
+        <v>1.668145932559641</v>
+      </c>
+      <c r="P29">
+        <v>1.5752261802654</v>
+      </c>
+      <c r="Q29">
+        <v>1.5752261802654</v>
+      </c>
+      <c r="R29">
+        <v>1.51217729487648</v>
+      </c>
+      <c r="S29">
+        <v>1.51217729487648</v>
+      </c>
+      <c r="T29">
+        <v>1.219231933213178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8410549643134161</v>
+      </c>
+      <c r="D30">
+        <v>0.7864053302316591</v>
+      </c>
+      <c r="E30">
+        <v>1.220661265984908</v>
+      </c>
+      <c r="F30">
+        <v>0.8431452172436656</v>
+      </c>
+      <c r="G30">
+        <v>0.8431452172436656</v>
+      </c>
+      <c r="H30">
+        <v>2.263286594824714</v>
+      </c>
+      <c r="I30">
+        <v>2.263286594824714</v>
+      </c>
+      <c r="J30">
+        <v>0.8459347755130112</v>
+      </c>
+      <c r="K30">
+        <v>0.8431452172436656</v>
+      </c>
+      <c r="L30">
+        <v>0.8459347755130112</v>
+      </c>
+      <c r="M30">
+        <v>1.554610685168863</v>
+      </c>
+      <c r="N30">
+        <v>1.554610685168863</v>
+      </c>
+      <c r="O30">
+        <v>1.443294212107544</v>
+      </c>
+      <c r="P30">
+        <v>1.317455529193797</v>
+      </c>
+      <c r="Q30">
+        <v>1.317455529193797</v>
+      </c>
+      <c r="R30">
+        <v>1.198877951206264</v>
+      </c>
+      <c r="S30">
+        <v>1.198877951206264</v>
+      </c>
+      <c r="T30">
+        <v>1.133414691351896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8035325152821686</v>
+      </c>
+      <c r="D31">
+        <v>0.9175228260583601</v>
+      </c>
+      <c r="E31">
+        <v>1.191381996999668</v>
+      </c>
+      <c r="F31">
+        <v>0.8792398502534035</v>
+      </c>
+      <c r="G31">
+        <v>0.8792398502534035</v>
+      </c>
+      <c r="H31">
+        <v>2.735537497787095</v>
+      </c>
+      <c r="I31">
+        <v>2.735537497787095</v>
+      </c>
+      <c r="J31">
+        <v>0.7586011723180288</v>
+      </c>
+      <c r="K31">
+        <v>0.8792398502534035</v>
+      </c>
+      <c r="L31">
+        <v>0.7586011723180288</v>
+      </c>
+      <c r="M31">
+        <v>1.747069335052562</v>
+      </c>
+      <c r="N31">
+        <v>1.747069335052562</v>
+      </c>
+      <c r="O31">
+        <v>1.561840222368264</v>
+      </c>
+      <c r="P31">
+        <v>1.457792840119509</v>
+      </c>
+      <c r="Q31">
+        <v>1.457792840119509</v>
+      </c>
+      <c r="R31">
+        <v>1.313154592652983</v>
+      </c>
+      <c r="S31">
+        <v>1.313154592652983</v>
+      </c>
+      <c r="T31">
+        <v>1.214302643116454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.3491501354575343</v>
+      </c>
+      <c r="D32">
+        <v>0.001398519309315068</v>
+      </c>
+      <c r="E32">
+        <v>1.956646233013699</v>
+      </c>
+      <c r="F32">
+        <v>1.89035945828504</v>
+      </c>
+      <c r="G32">
+        <v>1.89035945828504</v>
+      </c>
+      <c r="H32">
+        <v>3.571374211584247</v>
+      </c>
+      <c r="I32">
+        <v>3.571374211584247</v>
+      </c>
+      <c r="J32">
+        <v>0.06375218881369865</v>
+      </c>
+      <c r="K32">
+        <v>1.89035945828504</v>
+      </c>
+      <c r="L32">
+        <v>0.06375218881369865</v>
+      </c>
+      <c r="M32">
+        <v>1.817563200198973</v>
+      </c>
+      <c r="N32">
+        <v>1.817563200198973</v>
+      </c>
+      <c r="O32">
+        <v>1.863924211137215</v>
+      </c>
+      <c r="P32">
+        <v>1.841828619560995</v>
+      </c>
+      <c r="Q32">
+        <v>1.841828619560995</v>
+      </c>
+      <c r="R32">
+        <v>1.853961329242007</v>
+      </c>
+      <c r="S32">
+        <v>1.853961329242007</v>
+      </c>
+      <c r="T32">
+        <v>1.305446791077255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8011603088052632</v>
+      </c>
+      <c r="D33">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="E33">
+        <v>0.5875345469949472</v>
+      </c>
+      <c r="F33">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="G33">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="H33">
+        <v>2.117882948532106</v>
+      </c>
+      <c r="I33">
+        <v>2.117882948532106</v>
+      </c>
+      <c r="J33">
+        <v>1.103891457573684</v>
+      </c>
+      <c r="K33">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="L33">
+        <v>1.103891457573684</v>
+      </c>
+      <c r="M33">
+        <v>1.610887203052895</v>
+      </c>
+      <c r="N33">
+        <v>1.610887203052895</v>
+      </c>
+      <c r="O33">
+        <v>1.269769651033579</v>
+      </c>
+      <c r="P33">
+        <v>1.429189784381316</v>
+      </c>
+      <c r="Q33">
+        <v>1.429189784381316</v>
+      </c>
+      <c r="R33">
+        <v>1.338341075045526</v>
+      </c>
+      <c r="S33">
+        <v>1.338341075045526</v>
+      </c>
+      <c r="T33">
+        <v>1.374708630781482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8011603088052632</v>
+      </c>
+      <c r="D34">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="E34">
+        <v>0.5875345469949472</v>
+      </c>
+      <c r="F34">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="G34">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="H34">
+        <v>2.117882948533158</v>
+      </c>
+      <c r="I34">
+        <v>2.117882948533158</v>
+      </c>
+      <c r="J34">
+        <v>1.103891457573684</v>
+      </c>
+      <c r="K34">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="L34">
+        <v>1.103891457573684</v>
+      </c>
+      <c r="M34">
+        <v>1.610887203053421</v>
+      </c>
+      <c r="N34">
+        <v>1.610887203053421</v>
+      </c>
+      <c r="O34">
+        <v>1.26976965103393</v>
+      </c>
+      <c r="P34">
+        <v>1.429189784381667</v>
+      </c>
+      <c r="Q34">
+        <v>1.429189784381667</v>
+      </c>
+      <c r="R34">
+        <v>1.338341075045789</v>
+      </c>
+      <c r="S34">
+        <v>1.338341075045789</v>
+      </c>
+      <c r="T34">
+        <v>1.374708630781658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.423933265277592</v>
+      </c>
+      <c r="D35">
+        <v>0.3946853191482165</v>
+      </c>
+      <c r="E35">
+        <v>1.330435745398402</v>
+      </c>
+      <c r="F35">
+        <v>0.4146534047017889</v>
+      </c>
+      <c r="G35">
+        <v>0.4146534047017889</v>
+      </c>
+      <c r="H35">
+        <v>8.773684522703849</v>
+      </c>
+      <c r="I35">
+        <v>8.773684522703849</v>
+      </c>
+      <c r="J35">
+        <v>0.4284016518425586</v>
+      </c>
+      <c r="K35">
+        <v>0.4146534047017889</v>
+      </c>
+      <c r="L35">
+        <v>0.4284016518425586</v>
+      </c>
+      <c r="M35">
+        <v>4.601043087273204</v>
+      </c>
+      <c r="N35">
+        <v>4.601043087273204</v>
+      </c>
+      <c r="O35">
+        <v>3.510840639981603</v>
+      </c>
+      <c r="P35">
+        <v>3.205579859749399</v>
+      </c>
+      <c r="Q35">
+        <v>3.205579859749399</v>
+      </c>
+      <c r="R35">
+        <v>2.507848245987496</v>
+      </c>
+      <c r="S35">
+        <v>2.507848245987496</v>
+      </c>
+      <c r="T35">
+        <v>1.960965651512067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000124093439621</v>
+      </c>
+      <c r="D36">
+        <v>1.000955670047834</v>
+      </c>
+      <c r="E36">
+        <v>0.9997449601632612</v>
+      </c>
+      <c r="F36">
+        <v>0.9997059051785335</v>
+      </c>
+      <c r="G36">
+        <v>0.9997059051785335</v>
+      </c>
+      <c r="H36">
+        <v>1.001388565125089</v>
+      </c>
+      <c r="I36">
+        <v>1.001388565125089</v>
+      </c>
+      <c r="J36">
+        <v>1.000511249236278</v>
+      </c>
+      <c r="K36">
+        <v>0.9997059051785335</v>
+      </c>
+      <c r="L36">
+        <v>1.000511249236278</v>
+      </c>
+      <c r="M36">
+        <v>1.000949907180684</v>
+      </c>
+      <c r="N36">
+        <v>1.000949907180684</v>
+      </c>
+      <c r="O36">
+        <v>1.000548258174876</v>
+      </c>
+      <c r="P36">
+        <v>1.000535239846634</v>
+      </c>
+      <c r="Q36">
+        <v>1.000535239846634</v>
+      </c>
+      <c r="R36">
+        <v>1.000327906179609</v>
+      </c>
+      <c r="S36">
+        <v>1.000327906179609</v>
+      </c>
+      <c r="T36">
+        <v>1.000405073865103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9987747784750288</v>
+      </c>
+      <c r="D37">
+        <v>0.998875359681903</v>
+      </c>
+      <c r="E37">
+        <v>0.9991359530590324</v>
+      </c>
+      <c r="F37">
+        <v>0.9973561380932209</v>
+      </c>
+      <c r="G37">
+        <v>0.9973561380932209</v>
+      </c>
+      <c r="H37">
+        <v>1.020492707357621</v>
+      </c>
+      <c r="I37">
+        <v>1.020492707357621</v>
+      </c>
+      <c r="J37">
+        <v>0.9964585050587866</v>
+      </c>
+      <c r="K37">
+        <v>0.9973561380932209</v>
+      </c>
+      <c r="L37">
+        <v>0.9964585050587866</v>
+      </c>
+      <c r="M37">
+        <v>1.008475606208204</v>
+      </c>
+      <c r="N37">
+        <v>1.008475606208204</v>
+      </c>
+      <c r="O37">
+        <v>1.005362388491813</v>
+      </c>
+      <c r="P37">
+        <v>1.004769116836543</v>
+      </c>
+      <c r="Q37">
+        <v>1.004769116836543</v>
+      </c>
+      <c r="R37">
+        <v>1.002915872150712</v>
+      </c>
+      <c r="S37">
+        <v>1.002915872150712</v>
+      </c>
+      <c r="T37">
+        <v>1.001848906954265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9896061352236946</v>
+      </c>
+      <c r="D38">
+        <v>0.988632342118923</v>
+      </c>
+      <c r="E38">
+        <v>1.020667630164769</v>
+      </c>
+      <c r="F38">
+        <v>1.021400902148155</v>
+      </c>
+      <c r="G38">
+        <v>1.021400902148155</v>
+      </c>
+      <c r="H38">
+        <v>1.004028716344077</v>
+      </c>
+      <c r="I38">
+        <v>1.004028716344077</v>
+      </c>
+      <c r="J38">
+        <v>0.9874810495069956</v>
+      </c>
+      <c r="K38">
+        <v>1.021400902148155</v>
+      </c>
+      <c r="L38">
+        <v>0.9874810495069956</v>
+      </c>
+      <c r="M38">
+        <v>0.9957548829255363</v>
+      </c>
+      <c r="N38">
+        <v>0.9957548829255363</v>
+      </c>
+      <c r="O38">
+        <v>1.00405913200528</v>
+      </c>
+      <c r="P38">
+        <v>1.004303555999743</v>
+      </c>
+      <c r="Q38">
+        <v>1.004303555999743</v>
+      </c>
+      <c r="R38">
+        <v>1.008577892536846</v>
+      </c>
+      <c r="S38">
+        <v>1.008577892536846</v>
+      </c>
+      <c r="T38">
+        <v>1.001969462584436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9797861736530459</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9713598657183141</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.040775664616288</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.035322985398141</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.035322985398141</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.068369984068517</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.068369984068517</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9706681474745168</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.035322985398141</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9706681474745168</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.019519065771517</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.019519065771517</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.026604598719774</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.024787038980392</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.024787038980392</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.027421025584829</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.027421025584829</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.011047136821471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.009150631143125</v>
+      </c>
+      <c r="D40">
+        <v>0.9447703951520725</v>
+      </c>
+      <c r="E40">
+        <v>0.8862486315252173</v>
+      </c>
+      <c r="F40">
+        <v>1.421501298947827</v>
+      </c>
+      <c r="G40">
+        <v>1.421501298947827</v>
+      </c>
+      <c r="H40">
+        <v>0.8600221222861103</v>
+      </c>
+      <c r="I40">
+        <v>0.8600221222861103</v>
+      </c>
+      <c r="J40">
+        <v>0.9241460730889844</v>
+      </c>
+      <c r="K40">
+        <v>1.421501298947827</v>
+      </c>
+      <c r="L40">
+        <v>0.9241460730889844</v>
+      </c>
+      <c r="M40">
+        <v>0.8920840976875474</v>
+      </c>
+      <c r="N40">
+        <v>0.8920840976875474</v>
+      </c>
+      <c r="O40">
+        <v>0.890138942300104</v>
+      </c>
+      <c r="P40">
+        <v>1.068556498107641</v>
+      </c>
+      <c r="Q40">
+        <v>1.068556498107641</v>
+      </c>
+      <c r="R40">
+        <v>1.156792698317687</v>
+      </c>
+      <c r="S40">
+        <v>1.156792698317687</v>
+      </c>
+      <c r="T40">
+        <v>1.007639858690556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.017982522730108</v>
+      </c>
+      <c r="D41">
+        <v>0.7899880592953913</v>
+      </c>
+      <c r="E41">
+        <v>0.9883258656445433</v>
+      </c>
+      <c r="F41">
+        <v>1.135742048886955</v>
+      </c>
+      <c r="G41">
+        <v>1.135742048886955</v>
+      </c>
+      <c r="H41">
+        <v>0.9616032906777642</v>
+      </c>
+      <c r="I41">
+        <v>0.9616032906777642</v>
+      </c>
+      <c r="J41">
+        <v>0.9950967623281107</v>
+      </c>
+      <c r="K41">
+        <v>1.135742048886955</v>
+      </c>
+      <c r="L41">
+        <v>0.9950967623281107</v>
+      </c>
+      <c r="M41">
+        <v>0.9783500265029375</v>
+      </c>
+      <c r="N41">
+        <v>0.9783500265029375</v>
+      </c>
+      <c r="O41">
+        <v>0.9816753062168061</v>
+      </c>
+      <c r="P41">
+        <v>1.030814033964277</v>
+      </c>
+      <c r="Q41">
+        <v>1.030814033964277</v>
+      </c>
+      <c r="R41">
+        <v>1.057046037694946</v>
+      </c>
+      <c r="S41">
+        <v>1.057046037694946</v>
+      </c>
+      <c r="T41">
+        <v>0.9814564249271455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7101825189192923</v>
+      </c>
+      <c r="D42">
+        <v>0.3505821694164339</v>
+      </c>
+      <c r="E42">
+        <v>1.513289422429593</v>
+      </c>
+      <c r="F42">
+        <v>1.154256227308063</v>
+      </c>
+      <c r="G42">
+        <v>1.154256227308063</v>
+      </c>
+      <c r="H42">
+        <v>1.67781236917523</v>
+      </c>
+      <c r="I42">
+        <v>1.67781236917523</v>
+      </c>
+      <c r="J42">
+        <v>0.649223194566414</v>
+      </c>
+      <c r="K42">
+        <v>1.154256227308063</v>
+      </c>
+      <c r="L42">
+        <v>0.649223194566414</v>
+      </c>
+      <c r="M42">
+        <v>1.163517781870822</v>
+      </c>
+      <c r="N42">
+        <v>1.163517781870822</v>
+      </c>
+      <c r="O42">
+        <v>1.280108328723746</v>
+      </c>
+      <c r="P42">
+        <v>1.160430597016569</v>
+      </c>
+      <c r="Q42">
+        <v>1.160430597016569</v>
+      </c>
+      <c r="R42">
+        <v>1.158887004589442</v>
+      </c>
+      <c r="S42">
+        <v>1.158887004589442</v>
+      </c>
+      <c r="T42">
+        <v>1.009224316969171</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.035947533675895</v>
+        <v>0.9967222373412145</v>
       </c>
       <c r="D3">
-        <v>1.124540072658765</v>
+        <v>0.9965825019128847</v>
       </c>
       <c r="E3">
-        <v>0.9592690725696469</v>
+        <v>1.001801085279408</v>
       </c>
       <c r="F3">
-        <v>1.035947533675895</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="G3">
-        <v>0.9609620346861698</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="H3">
-        <v>1.041454921632092</v>
+        <v>1.033121305678899</v>
       </c>
       <c r="I3">
-        <v>0.9706634237218303</v>
+        <v>1.033121305678899</v>
       </c>
       <c r="J3">
-        <v>1.124540072658765</v>
+        <v>0.9964118959420472</v>
       </c>
       <c r="K3">
-        <v>1.035947533675895</v>
+        <v>1.001263409090415</v>
       </c>
       <c r="L3">
-        <v>0.9592690725696469</v>
+        <v>0.9964118959420472</v>
       </c>
       <c r="M3">
-        <v>1.041904572614206</v>
+        <v>1.014766600810473</v>
       </c>
       <c r="N3">
-        <v>1.041904572614206</v>
+        <v>1.014766600810473</v>
       </c>
       <c r="O3">
-        <v>1.041754688953501</v>
+        <v>1.010444762300118</v>
       </c>
       <c r="P3">
-        <v>1.039918892968102</v>
+        <v>1.010265536903787</v>
       </c>
       <c r="Q3">
-        <v>1.039918892968102</v>
+        <v>1.010265536903787</v>
       </c>
       <c r="R3">
-        <v>1.03892605314505</v>
+        <v>1.008015004950444</v>
       </c>
       <c r="S3">
-        <v>1.03892605314505</v>
+        <v>1.008015004950444</v>
       </c>
       <c r="T3">
-        <v>1.0154728431574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.004317072540811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.065006547477734</v>
+        <v>1.009150631143125</v>
       </c>
       <c r="D4">
-        <v>1.232367712158839</v>
+        <v>0.9447703951520725</v>
       </c>
       <c r="E4">
-        <v>0.9221711735522164</v>
+        <v>0.8862486315252173</v>
       </c>
       <c r="F4">
-        <v>1.065006547477734</v>
+        <v>1.421501298947827</v>
       </c>
       <c r="G4">
-        <v>0.9223475600236296</v>
+        <v>1.421501298947827</v>
       </c>
       <c r="H4">
-        <v>1.079748662427598</v>
+        <v>0.8600221222861103</v>
       </c>
       <c r="I4">
-        <v>0.9448020523935498</v>
+        <v>0.8600221222861103</v>
       </c>
       <c r="J4">
-        <v>1.232367712158839</v>
+        <v>0.9241460730889844</v>
       </c>
       <c r="K4">
-        <v>1.065006547477734</v>
+        <v>1.421501298947827</v>
       </c>
       <c r="L4">
-        <v>0.9221711735522164</v>
+        <v>0.9241460730889844</v>
       </c>
       <c r="M4">
-        <v>1.077269442855528</v>
+        <v>0.8920840976875474</v>
       </c>
       <c r="N4">
-        <v>1.077269442855528</v>
+        <v>0.8920840976875474</v>
       </c>
       <c r="O4">
-        <v>1.078095849379551</v>
+        <v>0.890138942300104</v>
       </c>
       <c r="P4">
-        <v>1.07318181106293</v>
+        <v>1.068556498107641</v>
       </c>
       <c r="Q4">
-        <v>1.07318181106293</v>
+        <v>1.068556498107641</v>
       </c>
       <c r="R4">
-        <v>1.071137995166631</v>
+        <v>1.156792698317687</v>
       </c>
       <c r="S4">
-        <v>1.071137995166631</v>
+        <v>1.156792698317687</v>
       </c>
       <c r="T4">
-        <v>1.027740618005595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.007639858690556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.134411796161258</v>
+        <v>0.8093337397490651</v>
       </c>
       <c r="D5">
-        <v>1.479802487016625</v>
+        <v>0.7755156050393079</v>
       </c>
       <c r="E5">
-        <v>0.8530085348348329</v>
+        <v>1.23525087103392</v>
       </c>
       <c r="F5">
-        <v>1.134411796161258</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="G5">
-        <v>0.8576905826465991</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="H5">
-        <v>1.161835435331867</v>
+        <v>2.621741946768759</v>
       </c>
       <c r="I5">
-        <v>0.8914535673485634</v>
+        <v>2.621741946768759</v>
       </c>
       <c r="J5">
-        <v>1.479802487016625</v>
+        <v>0.8130331980208197</v>
       </c>
       <c r="K5">
-        <v>1.134411796161258</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="L5">
-        <v>0.8530085348348329</v>
+        <v>0.8130331980208197</v>
       </c>
       <c r="M5">
-        <v>1.166405510925729</v>
+        <v>1.71738757239479</v>
       </c>
       <c r="N5">
-        <v>1.166405510925729</v>
+        <v>1.71738757239479</v>
       </c>
       <c r="O5">
-        <v>1.164882152394441</v>
+        <v>1.556675338607833</v>
       </c>
       <c r="P5">
-        <v>1.155740939337572</v>
+        <v>1.423414766202051</v>
       </c>
       <c r="Q5">
-        <v>1.155740939337572</v>
+        <v>1.423414766202051</v>
       </c>
       <c r="R5">
-        <v>1.150408653543494</v>
+        <v>1.276428363105682</v>
       </c>
       <c r="S5">
-        <v>1.150408653543494</v>
+        <v>1.276428363105682</v>
       </c>
       <c r="T5">
-        <v>1.063033733889957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.181724085738075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.215986609931587</v>
+        <v>0.423933265277592</v>
       </c>
       <c r="D6">
-        <v>1.779270264447036</v>
+        <v>0.3946853191482165</v>
       </c>
       <c r="E6">
-        <v>0.8690728096508618</v>
+        <v>1.330435745398402</v>
       </c>
       <c r="F6">
-        <v>1.215986609931587</v>
+        <v>0.4146534047017889</v>
       </c>
       <c r="G6">
-        <v>0.7567505821358729</v>
+        <v>0.4146534047017889</v>
       </c>
       <c r="H6">
-        <v>1.28433954173443</v>
+        <v>8.773684522703849</v>
       </c>
       <c r="I6">
-        <v>0.8123046903081417</v>
+        <v>8.773684522703849</v>
       </c>
       <c r="J6">
-        <v>1.779270264447036</v>
+        <v>0.4284016518425586</v>
       </c>
       <c r="K6">
-        <v>1.215986609931587</v>
+        <v>0.4146534047017889</v>
       </c>
       <c r="L6">
-        <v>0.8690728096508618</v>
+        <v>0.4284016518425586</v>
       </c>
       <c r="M6">
-        <v>1.324171537048949</v>
+        <v>4.601043087273204</v>
       </c>
       <c r="N6">
-        <v>1.324171537048949</v>
+        <v>4.601043087273204</v>
       </c>
       <c r="O6">
-        <v>1.310894205277443</v>
+        <v>3.510840639981603</v>
       </c>
       <c r="P6">
-        <v>1.288109894676495</v>
+        <v>3.205579859749399</v>
       </c>
       <c r="Q6">
-        <v>1.288109894676495</v>
+        <v>3.205579859749399</v>
       </c>
       <c r="R6">
-        <v>1.270079073490268</v>
+        <v>2.507848245987496</v>
       </c>
       <c r="S6">
-        <v>1.270079073490268</v>
+        <v>2.507848245987496</v>
       </c>
       <c r="T6">
-        <v>1.119620749701322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.960965651512067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999844538758236</v>
+        <v>0.9714399863265625</v>
       </c>
       <c r="D7">
-        <v>1.014130254101859</v>
+        <v>0.9539684154089599</v>
       </c>
       <c r="E7">
-        <v>0.9986670924592226</v>
+        <v>1.042460684041012</v>
       </c>
       <c r="F7">
-        <v>0.999844538758236</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="G7">
-        <v>0.9986891455050804</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="H7">
-        <v>1.000586749112116</v>
+        <v>1.112212905354441</v>
       </c>
       <c r="I7">
-        <v>0.9987994197774273</v>
+        <v>1.112212905354441</v>
       </c>
       <c r="J7">
-        <v>1.014130254101859</v>
+        <v>0.9609740696473856</v>
       </c>
       <c r="K7">
-        <v>0.999844538758236</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="L7">
-        <v>0.9986670924592226</v>
+        <v>0.9609740696473856</v>
       </c>
       <c r="M7">
-        <v>1.006398673280541</v>
+        <v>1.036593487500913</v>
       </c>
       <c r="N7">
-        <v>1.006398673280541</v>
+        <v>1.036593487500913</v>
       </c>
       <c r="O7">
-        <v>1.004461365224399</v>
+        <v>1.038549219680946</v>
       </c>
       <c r="P7">
-        <v>1.004213961773106</v>
+        <v>1.035389980793531</v>
       </c>
       <c r="Q7">
-        <v>1.004213961773106</v>
+        <v>1.035389980793531</v>
       </c>
       <c r="R7">
-        <v>1.003121606019388</v>
+        <v>1.03478822743984</v>
       </c>
       <c r="S7">
-        <v>1.003121606019388</v>
+        <v>1.03478822743984</v>
       </c>
       <c r="T7">
-        <v>1.001786199952323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.012339838026188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001263409090416</v>
+        <v>0.9987747784750288</v>
       </c>
       <c r="D8">
-        <v>1.033121305678897</v>
+        <v>0.998875359681903</v>
       </c>
       <c r="E8">
-        <v>0.9964118959420463</v>
+        <v>0.9991359530590324</v>
       </c>
       <c r="F8">
-        <v>1.001263409090416</v>
+        <v>0.9973561380932209</v>
       </c>
       <c r="G8">
-        <v>0.9965825019128841</v>
+        <v>0.9973561380932209</v>
       </c>
       <c r="H8">
-        <v>1.001801085279408</v>
+        <v>1.020492707357621</v>
       </c>
       <c r="I8">
-        <v>0.9967222373412157</v>
+        <v>1.020492707357621</v>
       </c>
       <c r="J8">
-        <v>1.033121305678897</v>
+        <v>0.9964585050587866</v>
       </c>
       <c r="K8">
-        <v>1.001263409090416</v>
+        <v>0.9973561380932209</v>
       </c>
       <c r="L8">
-        <v>0.9964118959420463</v>
+        <v>0.9964585050587866</v>
       </c>
       <c r="M8">
-        <v>1.014766600810472</v>
+        <v>1.008475606208204</v>
       </c>
       <c r="N8">
-        <v>1.014766600810472</v>
+        <v>1.008475606208204</v>
       </c>
       <c r="O8">
-        <v>1.010444762300117</v>
+        <v>1.005362388491813</v>
       </c>
       <c r="P8">
-        <v>1.010265536903787</v>
+        <v>1.004769116836543</v>
       </c>
       <c r="Q8">
-        <v>1.010265536903787</v>
+        <v>1.004769116836543</v>
       </c>
       <c r="R8">
-        <v>1.008015004950444</v>
+        <v>1.002915872150712</v>
       </c>
       <c r="S8">
-        <v>1.008015004950444</v>
+        <v>1.002915872150712</v>
       </c>
       <c r="T8">
-        <v>1.004317072540811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.001848906954265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004585004023049</v>
+        <v>0.9448020523935499</v>
       </c>
       <c r="D9">
-        <v>1.039525649056005</v>
+        <v>0.9223475600236296</v>
       </c>
       <c r="E9">
-        <v>0.9951972550421428</v>
+        <v>1.079748662427598</v>
       </c>
       <c r="F9">
-        <v>1.004585004023049</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="G9">
-        <v>0.993141193761038</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="H9">
-        <v>1.002205300011038</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="I9">
-        <v>0.9960864315217658</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="J9">
-        <v>1.039525649056005</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="K9">
-        <v>1.004585004023049</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="L9">
-        <v>0.9951972550421428</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="M9">
-        <v>1.017361452049074</v>
+        <v>1.077269442855528</v>
       </c>
       <c r="N9">
-        <v>1.017361452049074</v>
+        <v>1.077269442855528</v>
       </c>
       <c r="O9">
-        <v>1.012309401369729</v>
+        <v>1.078095849379551</v>
       </c>
       <c r="P9">
-        <v>1.013102636040399</v>
+        <v>1.07318181106293</v>
       </c>
       <c r="Q9">
-        <v>1.013102636040399</v>
+        <v>1.07318181106293</v>
       </c>
       <c r="R9">
-        <v>1.010973228036061</v>
+        <v>1.071137995166631</v>
       </c>
       <c r="S9">
-        <v>1.010973228036061</v>
+        <v>1.071137995166631</v>
       </c>
       <c r="T9">
-        <v>1.00512347223584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.027740618005595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006331822938018</v>
+        <v>0.4034336442027519</v>
       </c>
       <c r="D10">
-        <v>1.094312130144723</v>
+        <v>0.4402534641481524</v>
       </c>
       <c r="E10">
-        <v>0.9909104891386891</v>
+        <v>1.320817563278153</v>
       </c>
       <c r="F10">
-        <v>1.006331822938018</v>
+        <v>0.4439465374543483</v>
       </c>
       <c r="G10">
-        <v>0.9874039316985757</v>
+        <v>0.4439465374543483</v>
       </c>
       <c r="H10">
-        <v>1.004320661086227</v>
+        <v>9.011783012933586</v>
       </c>
       <c r="I10">
-        <v>0.9916798347318277</v>
+        <v>9.011783012933586</v>
       </c>
       <c r="J10">
-        <v>1.094312130144723</v>
+        <v>0.3799062120124767</v>
       </c>
       <c r="K10">
-        <v>1.006331822938018</v>
+        <v>0.4439465374543483</v>
       </c>
       <c r="L10">
-        <v>0.9909104891386891</v>
+        <v>0.3799062120124767</v>
       </c>
       <c r="M10">
-        <v>1.042611309641706</v>
+        <v>4.695844612473032</v>
       </c>
       <c r="N10">
-        <v>1.042611309641706</v>
+        <v>4.695844612473032</v>
       </c>
       <c r="O10">
-        <v>1.029847760123213</v>
+        <v>3.570835596074739</v>
       </c>
       <c r="P10">
-        <v>1.030518147407143</v>
+        <v>3.278545254133471</v>
       </c>
       <c r="Q10">
-        <v>1.030518147407143</v>
+        <v>3.278545254133471</v>
       </c>
       <c r="R10">
-        <v>1.024471566289862</v>
+        <v>2.56989557496369</v>
       </c>
       <c r="S10">
-        <v>1.024471566289862</v>
+        <v>2.56989557496369</v>
       </c>
       <c r="T10">
-        <v>1.012493144956343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>2.000023405671578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.02258356614374</v>
+        <v>0.9898997605274013</v>
       </c>
       <c r="D11">
-        <v>1.141008840450393</v>
+        <v>0.5524644133454309</v>
       </c>
       <c r="E11">
-        <v>0.9808943549338788</v>
+        <v>0.9795481287338756</v>
       </c>
       <c r="F11">
-        <v>1.02258356614374</v>
+        <v>1.539701159758835</v>
       </c>
       <c r="G11">
-        <v>0.9818799329941076</v>
+        <v>1.539701159758835</v>
       </c>
       <c r="H11">
-        <v>1.010532430742616</v>
+        <v>0.8877467824356902</v>
       </c>
       <c r="I11">
-        <v>0.9842913267171939</v>
+        <v>0.8877467824356902</v>
       </c>
       <c r="J11">
-        <v>1.141008840450393</v>
+        <v>0.8802293010662323</v>
       </c>
       <c r="K11">
-        <v>1.02258356614374</v>
+        <v>1.539701159758835</v>
       </c>
       <c r="L11">
-        <v>0.9808943549338788</v>
+        <v>0.8802293010662323</v>
       </c>
       <c r="M11">
-        <v>1.060951597692136</v>
+        <v>0.8839880417509612</v>
       </c>
       <c r="N11">
-        <v>1.060951597692136</v>
+        <v>0.8839880417509612</v>
       </c>
       <c r="O11">
-        <v>1.044145208708962</v>
+        <v>0.9158414040785994</v>
       </c>
       <c r="P11">
-        <v>1.048162253842671</v>
+        <v>1.102559081086919</v>
       </c>
       <c r="Q11">
-        <v>1.048162253842671</v>
+        <v>1.102559081086919</v>
       </c>
       <c r="R11">
-        <v>1.041767581917938</v>
+        <v>1.211844600754898</v>
       </c>
       <c r="S11">
-        <v>1.041767581917938</v>
+        <v>1.211844600754898</v>
       </c>
       <c r="T11">
-        <v>1.020198408663655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9715982576445775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.479441576350061</v>
+        <v>0.7888097486144223</v>
       </c>
       <c r="D12">
-        <v>0.08778695144993891</v>
+        <v>0.9467072450086004</v>
       </c>
       <c r="E12">
-        <v>0.4796082259608624</v>
+        <v>1.173161812160189</v>
       </c>
       <c r="F12">
-        <v>2.479441576350061</v>
+        <v>0.8256160774362186</v>
       </c>
       <c r="G12">
-        <v>0.06967064365367502</v>
+        <v>0.8256160774362186</v>
       </c>
       <c r="H12">
-        <v>0.8761457003203271</v>
+        <v>3.108472324176579</v>
       </c>
       <c r="I12">
-        <v>1.141002669141212</v>
+        <v>3.108472324176579</v>
       </c>
       <c r="J12">
-        <v>0.08778695144993891</v>
+        <v>0.7678950297415786</v>
       </c>
       <c r="K12">
-        <v>2.479441576350061</v>
+        <v>0.8256160774362186</v>
       </c>
       <c r="L12">
-        <v>0.4796082259608624</v>
+        <v>0.7678950297415786</v>
       </c>
       <c r="M12">
-        <v>0.2836975887054006</v>
+        <v>1.938183676959079</v>
       </c>
       <c r="N12">
-        <v>0.2836975887054006</v>
+        <v>1.938183676959079</v>
       </c>
       <c r="O12">
-        <v>0.4811802925770428</v>
+        <v>1.683176388692782</v>
       </c>
       <c r="P12">
-        <v>1.015612251253621</v>
+        <v>1.567327810451459</v>
       </c>
       <c r="Q12">
-        <v>1.015612251253621</v>
+        <v>1.567327810451459</v>
       </c>
       <c r="R12">
-        <v>1.381569582527731</v>
+        <v>1.381899877197649</v>
       </c>
       <c r="S12">
-        <v>1.381569582527731</v>
+        <v>1.381899877197649</v>
       </c>
       <c r="T12">
-        <v>0.8556092944793461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.268443706189598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3204352799556486</v>
+        <v>1.084139923684933</v>
       </c>
       <c r="D13">
-        <v>1.050513637667589</v>
+        <v>1.423778095786368</v>
       </c>
       <c r="E13">
-        <v>1.452558459160359</v>
+        <v>0.7241755148521914</v>
       </c>
       <c r="F13">
-        <v>0.3204352799556486</v>
+        <v>1.270193623858711</v>
       </c>
       <c r="G13">
-        <v>1.232729222069633</v>
+        <v>1.270193623858711</v>
       </c>
       <c r="H13">
-        <v>0.8241565714012438</v>
+        <v>0.692302309020011</v>
       </c>
       <c r="I13">
-        <v>1.081911017530356</v>
+        <v>0.692302309020011</v>
       </c>
       <c r="J13">
-        <v>1.050513637667589</v>
+        <v>0.9737445029811634</v>
       </c>
       <c r="K13">
-        <v>0.3204352799556486</v>
+        <v>1.270193623858711</v>
       </c>
       <c r="L13">
-        <v>1.452558459160359</v>
+        <v>0.9737445029811634</v>
       </c>
       <c r="M13">
-        <v>1.251536048413974</v>
+        <v>0.8330234060005872</v>
       </c>
       <c r="N13">
-        <v>1.251536048413974</v>
+        <v>0.8330234060005872</v>
       </c>
       <c r="O13">
-        <v>1.109076222743064</v>
+        <v>0.7967407756177886</v>
       </c>
       <c r="P13">
-        <v>0.9411691255945321</v>
+        <v>0.978746811953295</v>
       </c>
       <c r="Q13">
-        <v>0.9411691255945321</v>
+        <v>0.978746811953295</v>
       </c>
       <c r="R13">
-        <v>0.7859856641848113</v>
+        <v>1.051608514929649</v>
       </c>
       <c r="S13">
-        <v>0.7859856641848113</v>
+        <v>1.051608514929649</v>
       </c>
       <c r="T13">
-        <v>0.993717364630805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.02805566169723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3218564699133818</v>
+        <v>0.0023948996</v>
       </c>
       <c r="D14">
-        <v>0.0877368150670411</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="E14">
-        <v>1.427669694193636</v>
+        <v>1.4427831</v>
       </c>
       <c r="F14">
-        <v>0.3218564699133818</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="G14">
-        <v>1.77664282667386</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="H14">
-        <v>0.5011461361531317</v>
+        <v>15.308083</v>
       </c>
       <c r="I14">
-        <v>1.321770894541482</v>
+        <v>15.308083</v>
       </c>
       <c r="J14">
-        <v>0.0877368150670411</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="K14">
-        <v>0.3218564699133818</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="L14">
-        <v>1.427669694193636</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="M14">
-        <v>0.7577032546303387</v>
+        <v>7.656043085300001</v>
       </c>
       <c r="N14">
-        <v>0.7577032546303387</v>
+        <v>7.656043085300001</v>
       </c>
       <c r="O14">
-        <v>0.6721842151379365</v>
+        <v>5.584956423533335</v>
       </c>
       <c r="P14">
-        <v>0.6124209930580197</v>
+        <v>5.104244946413334</v>
       </c>
       <c r="Q14">
-        <v>0.6124209930580198</v>
+        <v>5.104244946413334</v>
       </c>
       <c r="R14">
-        <v>0.5397798622718603</v>
+        <v>3.828345876970001</v>
       </c>
       <c r="S14">
-        <v>0.5397798622718603</v>
+        <v>3.828345876970001</v>
       </c>
       <c r="T14">
-        <v>0.9061371394237554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>2.792442859840001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.715653053211375</v>
+        <v>0.60377661</v>
       </c>
       <c r="D15">
-        <v>1.045772899733438</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E15">
-        <v>0.6616939008335981</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="F15">
-        <v>1.715653053211375</v>
+        <v>7.6546011</v>
       </c>
       <c r="G15">
-        <v>1.386083954800664</v>
+        <v>7.6546011</v>
       </c>
       <c r="H15">
-        <v>1.084522476290895</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I15">
-        <v>0.8381313218092414</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J15">
-        <v>1.045772899733438</v>
+        <v>0.026860481</v>
       </c>
       <c r="K15">
-        <v>1.715653053211375</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>0.6616939008335981</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.853733400283518</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N15">
-        <v>0.853733400283518</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O15">
-        <v>0.930663092285977</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P15">
-        <v>1.14103995125947</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q15">
-        <v>1.14103995125947</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R15">
-        <v>1.284693226747446</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S15">
-        <v>1.284693226747446</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T15">
-        <v>1.121976267779868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.391753247525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997059051785339</v>
+        <v>0.60377661</v>
       </c>
       <c r="D16">
-        <v>1.001388565125089</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E16">
-        <v>1.000511249236278</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="F16">
-        <v>0.9997059051785339</v>
+        <v>7.6546011</v>
       </c>
       <c r="G16">
-        <v>1.000955670047835</v>
+        <v>7.6546011</v>
       </c>
       <c r="H16">
-        <v>0.9997449601632612</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I16">
-        <v>1.000124093439621</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J16">
-        <v>1.001388565125089</v>
+        <v>0.026860481</v>
       </c>
       <c r="K16">
-        <v>0.9997059051785339</v>
+        <v>7.6546011</v>
       </c>
       <c r="L16">
-        <v>1.000511249236278</v>
+        <v>0.026860481</v>
       </c>
       <c r="M16">
-        <v>1.000949907180684</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N16">
-        <v>1.000949907180684</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O16">
-        <v>1.000548258174876</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P16">
-        <v>1.000535239846634</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q16">
-        <v>1.000535239846634</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R16">
-        <v>1.000327906179609</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S16">
-        <v>1.000327906179609</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T16">
-        <v>1.000405073865103</v>
+        <v>1.391753247525</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9973561380932212</v>
+        <v>0.54659165</v>
       </c>
       <c r="D17">
-        <v>1.02049270735762</v>
+        <v>9.482715000000001</v>
       </c>
       <c r="E17">
-        <v>0.9964585050587862</v>
+        <v>-8.735273E-05</v>
       </c>
       <c r="F17">
-        <v>0.9973561380932212</v>
+        <v>0.014118213</v>
       </c>
       <c r="G17">
-        <v>0.9988753596819028</v>
+        <v>0.014118213</v>
       </c>
       <c r="H17">
-        <v>0.9991359530590305</v>
+        <v>0.00031124492</v>
       </c>
       <c r="I17">
-        <v>0.998774778475029</v>
+        <v>0.00031124492</v>
       </c>
       <c r="J17">
-        <v>1.02049270735762</v>
+        <v>0.98220786</v>
       </c>
       <c r="K17">
-        <v>0.9973561380932212</v>
+        <v>0.014118213</v>
       </c>
       <c r="L17">
-        <v>0.9964585050587862</v>
+        <v>0.98220786</v>
       </c>
       <c r="M17">
-        <v>1.008475606208203</v>
+        <v>0.49125955246</v>
       </c>
       <c r="N17">
-        <v>1.008475606208203</v>
+        <v>0.49125955246</v>
       </c>
       <c r="O17">
-        <v>1.005362388491812</v>
+        <v>0.32747725073</v>
       </c>
       <c r="P17">
-        <v>1.004769116836542</v>
+        <v>0.3322124393066667</v>
       </c>
       <c r="Q17">
-        <v>1.004769116836542</v>
+        <v>0.3322124393066667</v>
       </c>
       <c r="R17">
-        <v>1.002915872150712</v>
+        <v>0.25268888273</v>
       </c>
       <c r="S17">
-        <v>1.002915872150712</v>
+        <v>0.25268888273</v>
       </c>
       <c r="T17">
-        <v>1.001848906954265</v>
+        <v>1.837642769198333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.021400902148155</v>
+        <v>0.3491501354575343</v>
       </c>
       <c r="D18">
-        <v>1.004028716344076</v>
+        <v>0.001398519309315068</v>
       </c>
       <c r="E18">
-        <v>0.9874810495069962</v>
+        <v>1.956646233013699</v>
       </c>
       <c r="F18">
-        <v>1.021400902148155</v>
+        <v>1.89035945828504</v>
       </c>
       <c r="G18">
-        <v>0.9886323421189239</v>
+        <v>1.89035945828504</v>
       </c>
       <c r="H18">
-        <v>1.020667630164768</v>
+        <v>3.571374211584247</v>
       </c>
       <c r="I18">
-        <v>0.9896061352236949</v>
+        <v>3.571374211584247</v>
       </c>
       <c r="J18">
-        <v>1.004028716344076</v>
+        <v>0.06375218881369865</v>
       </c>
       <c r="K18">
-        <v>1.021400902148155</v>
+        <v>1.89035945828504</v>
       </c>
       <c r="L18">
-        <v>0.9874810495069962</v>
+        <v>0.06375218881369865</v>
       </c>
       <c r="M18">
-        <v>0.9957548829255363</v>
+        <v>1.817563200198973</v>
       </c>
       <c r="N18">
-        <v>0.9957548829255363</v>
+        <v>1.817563200198973</v>
       </c>
       <c r="O18">
-        <v>1.00405913200528</v>
+        <v>1.863924211137215</v>
       </c>
       <c r="P18">
-        <v>1.004303555999742</v>
+        <v>1.841828619560995</v>
       </c>
       <c r="Q18">
-        <v>1.004303555999742</v>
+        <v>1.841828619560995</v>
       </c>
       <c r="R18">
-        <v>1.008577892536846</v>
+        <v>1.853961329242007</v>
       </c>
       <c r="S18">
-        <v>1.008577892536846</v>
+        <v>1.853961329242007</v>
       </c>
       <c r="T18">
-        <v>1.001969462584436</v>
+        <v>1.305446791077255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.035322985398141</v>
+        <v>0.8011603088052632</v>
       </c>
       <c r="D19">
-        <v>1.068369984068517</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="E19">
-        <v>0.9706681474745168</v>
+        <v>0.5875345469949472</v>
       </c>
       <c r="F19">
-        <v>1.035322985398141</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="G19">
-        <v>0.9713598657183141</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="H19">
-        <v>1.040775664616288</v>
+        <v>2.117882948532106</v>
       </c>
       <c r="I19">
-        <v>0.9797861736530459</v>
+        <v>2.117882948532106</v>
       </c>
       <c r="J19">
-        <v>1.068369984068517</v>
+        <v>1.103891457573684</v>
       </c>
       <c r="K19">
-        <v>1.035322985398141</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="L19">
-        <v>0.9706681474745168</v>
+        <v>1.103891457573684</v>
       </c>
       <c r="M19">
-        <v>1.019519065771517</v>
+        <v>1.610887203052895</v>
       </c>
       <c r="N19">
-        <v>1.019519065771517</v>
+        <v>1.610887203052895</v>
       </c>
       <c r="O19">
-        <v>1.026604598719774</v>
+        <v>1.269769651033579</v>
       </c>
       <c r="P19">
-        <v>1.024787038980392</v>
+        <v>1.429189784381316</v>
       </c>
       <c r="Q19">
-        <v>1.024787038980392</v>
+        <v>1.429189784381316</v>
       </c>
       <c r="R19">
-        <v>1.027421025584829</v>
+        <v>1.338341075045526</v>
       </c>
       <c r="S19">
-        <v>1.027421025584829</v>
+        <v>1.338341075045526</v>
       </c>
       <c r="T19">
-        <v>1.011047136821471</v>
+        <v>1.374708630781482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8011603088052632</v>
+      </c>
+      <c r="D20">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="E20">
+        <v>0.5875345469949472</v>
+      </c>
+      <c r="F20">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="G20">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="H20">
+        <v>2.117882948533158</v>
+      </c>
+      <c r="I20">
+        <v>2.117882948533158</v>
+      </c>
+      <c r="J20">
+        <v>1.103891457573684</v>
+      </c>
+      <c r="K20">
+        <v>1.065794947038158</v>
+      </c>
+      <c r="L20">
+        <v>1.103891457573684</v>
+      </c>
+      <c r="M20">
+        <v>1.610887203053421</v>
+      </c>
+      <c r="N20">
+        <v>1.610887203053421</v>
+      </c>
+      <c r="O20">
+        <v>1.26976965103393</v>
+      </c>
+      <c r="P20">
+        <v>1.429189784381667</v>
+      </c>
+      <c r="Q20">
+        <v>1.429189784381667</v>
+      </c>
+      <c r="R20">
+        <v>1.338341075045789</v>
+      </c>
+      <c r="S20">
+        <v>1.338341075045789</v>
+      </c>
+      <c r="T20">
+        <v>1.374708630781658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.321770894541482</v>
+      </c>
+      <c r="D21">
+        <v>1.77664282667386</v>
+      </c>
+      <c r="E21">
+        <v>0.5011461361531316</v>
+      </c>
+      <c r="F21">
+        <v>0.3218564699133816</v>
+      </c>
+      <c r="G21">
+        <v>0.3218564699133816</v>
+      </c>
+      <c r="H21">
+        <v>0.08773681506704098</v>
+      </c>
+      <c r="I21">
+        <v>0.08773681506704098</v>
+      </c>
+      <c r="J21">
+        <v>1.427669694193637</v>
+      </c>
+      <c r="K21">
+        <v>0.3218564699133816</v>
+      </c>
+      <c r="L21">
+        <v>1.427669694193637</v>
+      </c>
+      <c r="M21">
+        <v>0.7577032546303391</v>
+      </c>
+      <c r="N21">
+        <v>0.7577032546303391</v>
+      </c>
+      <c r="O21">
+        <v>0.6721842151379366</v>
+      </c>
+      <c r="P21">
+        <v>0.6124209930580199</v>
+      </c>
+      <c r="Q21">
+        <v>0.6124209930580199</v>
+      </c>
+      <c r="R21">
+        <v>0.5397798622718603</v>
+      </c>
+      <c r="S21">
+        <v>0.5397798622718603</v>
+      </c>
+      <c r="T21">
+        <v>0.9061371394237554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8381313218092414</v>
+      </c>
+      <c r="D22">
+        <v>1.386083954800664</v>
+      </c>
+      <c r="E22">
+        <v>1.084522476290895</v>
+      </c>
+      <c r="F22">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="G22">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="H22">
+        <v>1.045772899733438</v>
+      </c>
+      <c r="I22">
+        <v>1.045772899733438</v>
+      </c>
+      <c r="J22">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="K22">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="L22">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="M22">
+        <v>0.853733400283518</v>
+      </c>
+      <c r="N22">
+        <v>0.853733400283518</v>
+      </c>
+      <c r="O22">
+        <v>0.930663092285977</v>
+      </c>
+      <c r="P22">
+        <v>1.14103995125947</v>
+      </c>
+      <c r="Q22">
+        <v>1.14103995125947</v>
+      </c>
+      <c r="R22">
+        <v>1.284693226747446</v>
+      </c>
+      <c r="S22">
+        <v>1.284693226747446</v>
+      </c>
+      <c r="T22">
+        <v>1.121976267779868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.141002669141212</v>
+      </c>
+      <c r="D23">
+        <v>0.06967064365367504</v>
+      </c>
+      <c r="E23">
+        <v>0.8761457003203269</v>
+      </c>
+      <c r="F23">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="G23">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="H23">
+        <v>0.08778695144993871</v>
+      </c>
+      <c r="I23">
+        <v>0.08778695144993871</v>
+      </c>
+      <c r="J23">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="K23">
+        <v>2.479441576350061</v>
+      </c>
+      <c r="L23">
+        <v>0.4796082259608624</v>
+      </c>
+      <c r="M23">
+        <v>0.2836975887054006</v>
+      </c>
+      <c r="N23">
+        <v>0.2836975887054006</v>
+      </c>
+      <c r="O23">
+        <v>0.4811802925770427</v>
+      </c>
+      <c r="P23">
+        <v>1.015612251253621</v>
+      </c>
+      <c r="Q23">
+        <v>1.015612251253621</v>
+      </c>
+      <c r="R23">
+        <v>1.381569582527731</v>
+      </c>
+      <c r="S23">
+        <v>1.381569582527731</v>
+      </c>
+      <c r="T23">
+        <v>0.855609294479346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.081911017530356</v>
+      </c>
+      <c r="D24">
+        <v>1.232729222069633</v>
+      </c>
+      <c r="E24">
+        <v>0.824156571401244</v>
+      </c>
+      <c r="F24">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="G24">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="H24">
+        <v>1.050513637667589</v>
+      </c>
+      <c r="I24">
+        <v>1.050513637667589</v>
+      </c>
+      <c r="J24">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="K24">
+        <v>0.3204352799556485</v>
+      </c>
+      <c r="L24">
+        <v>1.452558459160359</v>
+      </c>
+      <c r="M24">
+        <v>1.251536048413974</v>
+      </c>
+      <c r="N24">
+        <v>1.251536048413974</v>
+      </c>
+      <c r="O24">
+        <v>1.109076222743064</v>
+      </c>
+      <c r="P24">
+        <v>0.9411691255945321</v>
+      </c>
+      <c r="Q24">
+        <v>0.9411691255945321</v>
+      </c>
+      <c r="R24">
+        <v>0.7859856641848113</v>
+      </c>
+      <c r="S24">
+        <v>0.7859856641848113</v>
+      </c>
+      <c r="T24">
+        <v>0.9937173646308048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.321770894541482</v>
+      </c>
+      <c r="D25">
+        <v>1.77664282667386</v>
+      </c>
+      <c r="E25">
+        <v>0.5011461361531317</v>
+      </c>
+      <c r="F25">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="G25">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="H25">
+        <v>0.08773681507864868</v>
+      </c>
+      <c r="I25">
+        <v>0.08773681507864868</v>
+      </c>
+      <c r="J25">
+        <v>1.427669694193637</v>
+      </c>
+      <c r="K25">
+        <v>0.3218564699133815</v>
+      </c>
+      <c r="L25">
+        <v>1.427669694193637</v>
+      </c>
+      <c r="M25">
+        <v>0.7577032546361429</v>
+      </c>
+      <c r="N25">
+        <v>0.7577032546361429</v>
+      </c>
+      <c r="O25">
+        <v>0.6721842151418058</v>
+      </c>
+      <c r="P25">
+        <v>0.612420993061889</v>
+      </c>
+      <c r="Q25">
+        <v>0.612420993061889</v>
+      </c>
+      <c r="R25">
+        <v>0.5397798622747622</v>
+      </c>
+      <c r="S25">
+        <v>0.5397798622747622</v>
+      </c>
+      <c r="T25">
+        <v>0.9061371394256902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8381313218092414</v>
+      </c>
+      <c r="D26">
+        <v>1.386083954800663</v>
+      </c>
+      <c r="E26">
+        <v>1.084522476290895</v>
+      </c>
+      <c r="F26">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="G26">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="H26">
+        <v>1.045772899733671</v>
+      </c>
+      <c r="I26">
+        <v>1.045772899733671</v>
+      </c>
+      <c r="J26">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="K26">
+        <v>1.715653053211375</v>
+      </c>
+      <c r="L26">
+        <v>0.6616939008335981</v>
+      </c>
+      <c r="M26">
+        <v>0.8537334002836345</v>
+      </c>
+      <c r="N26">
+        <v>0.8537334002836345</v>
+      </c>
+      <c r="O26">
+        <v>0.9306630922860547</v>
+      </c>
+      <c r="P26">
+        <v>1.141039951259548</v>
+      </c>
+      <c r="Q26">
+        <v>1.141039951259548</v>
+      </c>
+      <c r="R26">
+        <v>1.284693226747505</v>
+      </c>
+      <c r="S26">
+        <v>1.284693226747505</v>
+      </c>
+      <c r="T26">
+        <v>1.121976267779907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8993993668974576</v>
+      </c>
+      <c r="D27">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="E27">
+        <v>1.3900915395948</v>
+      </c>
+      <c r="F27">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="G27">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="H27">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="I27">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="J27">
+        <v>1.022730233556913</v>
+      </c>
+      <c r="K27">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="L27">
+        <v>1.022730233556913</v>
+      </c>
+      <c r="M27">
+        <v>1.085711602594738</v>
+      </c>
+      <c r="N27">
+        <v>1.085711602594738</v>
+      </c>
+      <c r="O27">
+        <v>1.187171581594759</v>
+      </c>
+      <c r="P27">
+        <v>0.9179678677845718</v>
+      </c>
+      <c r="Q27">
+        <v>0.9179678677845718</v>
+      </c>
+      <c r="R27">
+        <v>0.8340960003794891</v>
+      </c>
+      <c r="S27">
+        <v>0.8340960003794891</v>
+      </c>
+      <c r="T27">
+        <v>0.9371422863479667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9530746685624495</v>
+      </c>
+      <c r="D28">
+        <v>2.066977073546695</v>
+      </c>
+      <c r="E28">
+        <v>0.8000890735142706</v>
+      </c>
+      <c r="F28">
+        <v>0.782169442894889</v>
+      </c>
+      <c r="G28">
+        <v>0.782169442894889</v>
+      </c>
+      <c r="H28">
+        <v>1.397491008235036</v>
+      </c>
+      <c r="I28">
+        <v>1.397491008235036</v>
+      </c>
+      <c r="J28">
+        <v>0.9383585318476719</v>
+      </c>
+      <c r="K28">
+        <v>0.782169442894889</v>
+      </c>
+      <c r="L28">
+        <v>0.9383585318476719</v>
+      </c>
+      <c r="M28">
+        <v>1.167924770041354</v>
+      </c>
+      <c r="N28">
+        <v>1.167924770041354</v>
+      </c>
+      <c r="O28">
+        <v>1.045312871198993</v>
+      </c>
+      <c r="P28">
+        <v>1.039339660992532</v>
+      </c>
+      <c r="Q28">
+        <v>1.039339660992532</v>
+      </c>
+      <c r="R28">
+        <v>0.9750471064681215</v>
+      </c>
+      <c r="S28">
+        <v>0.9750471064681215</v>
+      </c>
+      <c r="T28">
+        <v>1.156359966433502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.193536956628868</v>
+      </c>
+      <c r="D29">
+        <v>2.880923531050676</v>
+      </c>
+      <c r="E29">
+        <v>0.4023995443724684</v>
+      </c>
+      <c r="F29">
+        <v>0.7079018247397664</v>
+      </c>
+      <c r="G29">
+        <v>0.7079018247397664</v>
+      </c>
+      <c r="H29">
+        <v>0.01157730000602827</v>
+      </c>
+      <c r="I29">
+        <v>0.01157730000602827</v>
+      </c>
+      <c r="J29">
+        <v>1.344270952320645</v>
+      </c>
+      <c r="K29">
+        <v>0.7079018247397664</v>
+      </c>
+      <c r="L29">
+        <v>1.344270952320645</v>
+      </c>
+      <c r="M29">
+        <v>0.6779241261633366</v>
+      </c>
+      <c r="N29">
+        <v>0.6779241261633366</v>
+      </c>
+      <c r="O29">
+        <v>0.5860825988997139</v>
+      </c>
+      <c r="P29">
+        <v>0.6879166923554799</v>
+      </c>
+      <c r="Q29">
+        <v>0.6879166923554799</v>
+      </c>
+      <c r="R29">
+        <v>0.6929129754515515</v>
+      </c>
+      <c r="S29">
+        <v>0.6929129754515515</v>
+      </c>
+      <c r="T29">
+        <v>1.090101684853075</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009150631143125</v>
+        <v>0.8416562344382331</v>
       </c>
       <c r="D4">
-        <v>0.9447703951520725</v>
+        <v>0.7911838908164963</v>
       </c>
       <c r="E4">
-        <v>0.8862486315252173</v>
+        <v>1.225732068775506</v>
       </c>
       <c r="F4">
-        <v>1.421501298947827</v>
+        <v>0.8122139612259074</v>
       </c>
       <c r="G4">
-        <v>1.421501298947827</v>
+        <v>0.8122139612259074</v>
       </c>
       <c r="H4">
-        <v>0.8600221222861103</v>
+        <v>2.289034026673507</v>
       </c>
       <c r="I4">
-        <v>0.8600221222861103</v>
+        <v>2.289034026673507</v>
       </c>
       <c r="J4">
-        <v>0.9241460730889844</v>
+        <v>0.8507438606363389</v>
       </c>
       <c r="K4">
-        <v>1.421501298947827</v>
+        <v>0.8122139612259074</v>
       </c>
       <c r="L4">
-        <v>0.9241460730889844</v>
+        <v>0.8507438606363389</v>
       </c>
       <c r="M4">
-        <v>0.8920840976875474</v>
+        <v>1.569888943654923</v>
       </c>
       <c r="N4">
-        <v>0.8920840976875474</v>
+        <v>1.569888943654923</v>
       </c>
       <c r="O4">
-        <v>0.890138942300104</v>
+        <v>1.455169985361784</v>
       </c>
       <c r="P4">
-        <v>1.068556498107641</v>
+        <v>1.317330616178585</v>
       </c>
       <c r="Q4">
-        <v>1.068556498107641</v>
+        <v>1.317330616178584</v>
       </c>
       <c r="R4">
-        <v>1.156792698317687</v>
+        <v>1.191051452440415</v>
       </c>
       <c r="S4">
-        <v>1.156792698317687</v>
+        <v>1.191051452440415</v>
       </c>
       <c r="T4">
-        <v>1.007639858690556</v>
+        <v>1.135094007094331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8093337397490651</v>
+        <v>0.8706310877795003</v>
       </c>
       <c r="D5">
-        <v>0.7755156050393079</v>
+        <v>2.845303050575723</v>
       </c>
       <c r="E5">
-        <v>1.23525087103392</v>
+        <v>0.5222278257175705</v>
       </c>
       <c r="F5">
-        <v>0.8354691538165749</v>
+        <v>0.9897916330979725</v>
       </c>
       <c r="G5">
-        <v>0.8354691538165749</v>
+        <v>0.9897916330979725</v>
       </c>
       <c r="H5">
-        <v>2.621741946768759</v>
+        <v>1.176448300163189</v>
       </c>
       <c r="I5">
-        <v>2.621741946768759</v>
+        <v>1.176448300163189</v>
       </c>
       <c r="J5">
-        <v>0.8130331980208197</v>
+        <v>1.218507660388504</v>
       </c>
       <c r="K5">
-        <v>0.8354691538165749</v>
+        <v>0.9897916330979725</v>
       </c>
       <c r="L5">
-        <v>0.8130331980208197</v>
+        <v>1.218507660388504</v>
       </c>
       <c r="M5">
-        <v>1.71738757239479</v>
+        <v>1.197477980275846</v>
       </c>
       <c r="N5">
-        <v>1.71738757239479</v>
+        <v>1.197477980275846</v>
       </c>
       <c r="O5">
-        <v>1.556675338607833</v>
+        <v>0.9723945954230878</v>
       </c>
       <c r="P5">
-        <v>1.423414766202051</v>
+        <v>1.128249197883222</v>
       </c>
       <c r="Q5">
-        <v>1.423414766202051</v>
+        <v>1.128249197883222</v>
       </c>
       <c r="R5">
-        <v>1.276428363105682</v>
+        <v>1.093634806686909</v>
       </c>
       <c r="S5">
-        <v>1.276428363105682</v>
+        <v>1.093634806686909</v>
       </c>
       <c r="T5">
-        <v>1.181724085738075</v>
+        <v>1.270484926287077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.423933265277592</v>
+        <v>1.009150631143125</v>
       </c>
       <c r="D6">
-        <v>0.3946853191482165</v>
+        <v>0.9447703951520725</v>
       </c>
       <c r="E6">
-        <v>1.330435745398402</v>
+        <v>0.8862486315252173</v>
       </c>
       <c r="F6">
-        <v>0.4146534047017889</v>
+        <v>1.421501298947827</v>
       </c>
       <c r="G6">
-        <v>0.4146534047017889</v>
+        <v>1.421501298947827</v>
       </c>
       <c r="H6">
-        <v>8.773684522703849</v>
+        <v>0.8600221222861103</v>
       </c>
       <c r="I6">
-        <v>8.773684522703849</v>
+        <v>0.8600221222861103</v>
       </c>
       <c r="J6">
-        <v>0.4284016518425586</v>
+        <v>0.9241460730889844</v>
       </c>
       <c r="K6">
-        <v>0.4146534047017889</v>
+        <v>1.421501298947827</v>
       </c>
       <c r="L6">
-        <v>0.4284016518425586</v>
+        <v>0.9241460730889844</v>
       </c>
       <c r="M6">
-        <v>4.601043087273204</v>
+        <v>0.8920840976875474</v>
       </c>
       <c r="N6">
-        <v>4.601043087273204</v>
+        <v>0.8920840976875474</v>
       </c>
       <c r="O6">
-        <v>3.510840639981603</v>
+        <v>0.890138942300104</v>
       </c>
       <c r="P6">
-        <v>3.205579859749399</v>
+        <v>1.068556498107641</v>
       </c>
       <c r="Q6">
-        <v>3.205579859749399</v>
+        <v>1.068556498107641</v>
       </c>
       <c r="R6">
-        <v>2.507848245987496</v>
+        <v>1.156792698317687</v>
       </c>
       <c r="S6">
-        <v>2.507848245987496</v>
+        <v>1.156792698317687</v>
       </c>
       <c r="T6">
-        <v>1.960965651512067</v>
+        <v>1.007639858690556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9714399863265625</v>
+        <v>0.8093337397490651</v>
       </c>
       <c r="D7">
-        <v>0.9539684154089599</v>
+        <v>0.7755156050393079</v>
       </c>
       <c r="E7">
-        <v>1.042460684041012</v>
+        <v>1.23525087103392</v>
       </c>
       <c r="F7">
-        <v>1.032982967378766</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="G7">
-        <v>1.032982967378766</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="H7">
-        <v>1.112212905354441</v>
+        <v>2.621741946768759</v>
       </c>
       <c r="I7">
-        <v>1.112212905354441</v>
+        <v>2.621741946768759</v>
       </c>
       <c r="J7">
-        <v>0.9609740696473856</v>
+        <v>0.8130331980208197</v>
       </c>
       <c r="K7">
-        <v>1.032982967378766</v>
+        <v>0.8354691538165749</v>
       </c>
       <c r="L7">
-        <v>0.9609740696473856</v>
+        <v>0.8130331980208197</v>
       </c>
       <c r="M7">
-        <v>1.036593487500913</v>
+        <v>1.71738757239479</v>
       </c>
       <c r="N7">
-        <v>1.036593487500913</v>
+        <v>1.71738757239479</v>
       </c>
       <c r="O7">
-        <v>1.038549219680946</v>
+        <v>1.556675338607833</v>
       </c>
       <c r="P7">
-        <v>1.035389980793531</v>
+        <v>1.423414766202051</v>
       </c>
       <c r="Q7">
-        <v>1.035389980793531</v>
+        <v>1.423414766202051</v>
       </c>
       <c r="R7">
-        <v>1.03478822743984</v>
+        <v>1.276428363105682</v>
       </c>
       <c r="S7">
-        <v>1.03478822743984</v>
+        <v>1.276428363105682</v>
       </c>
       <c r="T7">
-        <v>1.012339838026188</v>
+        <v>1.181724085738075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9987747784750288</v>
+        <v>0.423933265277592</v>
       </c>
       <c r="D8">
-        <v>0.998875359681903</v>
+        <v>0.3946853191482165</v>
       </c>
       <c r="E8">
-        <v>0.9991359530590324</v>
+        <v>1.330435745398402</v>
       </c>
       <c r="F8">
-        <v>0.9973561380932209</v>
+        <v>0.4146534047017889</v>
       </c>
       <c r="G8">
-        <v>0.9973561380932209</v>
+        <v>0.4146534047017889</v>
       </c>
       <c r="H8">
-        <v>1.020492707357621</v>
+        <v>8.773684522703849</v>
       </c>
       <c r="I8">
-        <v>1.020492707357621</v>
+        <v>8.773684522703849</v>
       </c>
       <c r="J8">
-        <v>0.9964585050587866</v>
+        <v>0.4284016518425586</v>
       </c>
       <c r="K8">
-        <v>0.9973561380932209</v>
+        <v>0.4146534047017889</v>
       </c>
       <c r="L8">
-        <v>0.9964585050587866</v>
+        <v>0.4284016518425586</v>
       </c>
       <c r="M8">
-        <v>1.008475606208204</v>
+        <v>4.601043087273204</v>
       </c>
       <c r="N8">
-        <v>1.008475606208204</v>
+        <v>4.601043087273204</v>
       </c>
       <c r="O8">
-        <v>1.005362388491813</v>
+        <v>3.510840639981603</v>
       </c>
       <c r="P8">
-        <v>1.004769116836543</v>
+        <v>3.205579859749399</v>
       </c>
       <c r="Q8">
-        <v>1.004769116836543</v>
+        <v>3.205579859749399</v>
       </c>
       <c r="R8">
-        <v>1.002915872150712</v>
+        <v>2.507848245987496</v>
       </c>
       <c r="S8">
-        <v>1.002915872150712</v>
+        <v>2.507848245987496</v>
       </c>
       <c r="T8">
-        <v>1.001848906954265</v>
+        <v>1.960965651512067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9448020523935499</v>
+        <v>0.9714399863265625</v>
       </c>
       <c r="D9">
-        <v>0.9223475600236296</v>
+        <v>0.9539684154089599</v>
       </c>
       <c r="E9">
-        <v>1.079748662427598</v>
+        <v>1.042460684041012</v>
       </c>
       <c r="F9">
-        <v>1.065006547477734</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="G9">
-        <v>1.065006547477734</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="H9">
-        <v>1.232367712158839</v>
+        <v>1.112212905354441</v>
       </c>
       <c r="I9">
-        <v>1.232367712158839</v>
+        <v>1.112212905354441</v>
       </c>
       <c r="J9">
-        <v>0.9221711735522164</v>
+        <v>0.9609740696473856</v>
       </c>
       <c r="K9">
-        <v>1.065006547477734</v>
+        <v>1.032982967378766</v>
       </c>
       <c r="L9">
-        <v>0.9221711735522164</v>
+        <v>0.9609740696473856</v>
       </c>
       <c r="M9">
-        <v>1.077269442855528</v>
+        <v>1.036593487500913</v>
       </c>
       <c r="N9">
-        <v>1.077269442855528</v>
+        <v>1.036593487500913</v>
       </c>
       <c r="O9">
-        <v>1.078095849379551</v>
+        <v>1.038549219680946</v>
       </c>
       <c r="P9">
-        <v>1.07318181106293</v>
+        <v>1.035389980793531</v>
       </c>
       <c r="Q9">
-        <v>1.07318181106293</v>
+        <v>1.035389980793531</v>
       </c>
       <c r="R9">
-        <v>1.071137995166631</v>
+        <v>1.03478822743984</v>
       </c>
       <c r="S9">
-        <v>1.071137995166631</v>
+        <v>1.03478822743984</v>
       </c>
       <c r="T9">
-        <v>1.027740618005595</v>
+        <v>1.012339838026188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4034336442027519</v>
+        <v>0.9987747784750288</v>
       </c>
       <c r="D10">
-        <v>0.4402534641481524</v>
+        <v>0.998875359681903</v>
       </c>
       <c r="E10">
-        <v>1.320817563278153</v>
+        <v>0.9991359530590324</v>
       </c>
       <c r="F10">
-        <v>0.4439465374543483</v>
+        <v>0.9973561380932209</v>
       </c>
       <c r="G10">
-        <v>0.4439465374543483</v>
+        <v>0.9973561380932209</v>
       </c>
       <c r="H10">
-        <v>9.011783012933586</v>
+        <v>1.020492707357621</v>
       </c>
       <c r="I10">
-        <v>9.011783012933586</v>
+        <v>1.020492707357621</v>
       </c>
       <c r="J10">
-        <v>0.3799062120124767</v>
+        <v>0.9964585050587866</v>
       </c>
       <c r="K10">
-        <v>0.4439465374543483</v>
+        <v>0.9973561380932209</v>
       </c>
       <c r="L10">
-        <v>0.3799062120124767</v>
+        <v>0.9964585050587866</v>
       </c>
       <c r="M10">
-        <v>4.695844612473032</v>
+        <v>1.008475606208204</v>
       </c>
       <c r="N10">
-        <v>4.695844612473032</v>
+        <v>1.008475606208204</v>
       </c>
       <c r="O10">
-        <v>3.570835596074739</v>
+        <v>1.005362388491813</v>
       </c>
       <c r="P10">
-        <v>3.278545254133471</v>
+        <v>1.004769116836543</v>
       </c>
       <c r="Q10">
-        <v>3.278545254133471</v>
+        <v>1.004769116836543</v>
       </c>
       <c r="R10">
-        <v>2.56989557496369</v>
+        <v>1.002915872150712</v>
       </c>
       <c r="S10">
-        <v>2.56989557496369</v>
+        <v>1.002915872150712</v>
       </c>
       <c r="T10">
-        <v>2.000023405671578</v>
+        <v>1.001848906954265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9898997605274013</v>
+        <v>0.9448020523935499</v>
       </c>
       <c r="D11">
-        <v>0.5524644133454309</v>
+        <v>0.9223475600236296</v>
       </c>
       <c r="E11">
-        <v>0.9795481287338756</v>
+        <v>1.079748662427598</v>
       </c>
       <c r="F11">
-        <v>1.539701159758835</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="G11">
-        <v>1.539701159758835</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="H11">
-        <v>0.8877467824356902</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="I11">
-        <v>0.8877467824356902</v>
+        <v>1.232367712158839</v>
       </c>
       <c r="J11">
-        <v>0.8802293010662323</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="K11">
-        <v>1.539701159758835</v>
+        <v>1.065006547477734</v>
       </c>
       <c r="L11">
-        <v>0.8802293010662323</v>
+        <v>0.9221711735522164</v>
       </c>
       <c r="M11">
-        <v>0.8839880417509612</v>
+        <v>1.077269442855528</v>
       </c>
       <c r="N11">
-        <v>0.8839880417509612</v>
+        <v>1.077269442855528</v>
       </c>
       <c r="O11">
-        <v>0.9158414040785994</v>
+        <v>1.078095849379551</v>
       </c>
       <c r="P11">
-        <v>1.102559081086919</v>
+        <v>1.07318181106293</v>
       </c>
       <c r="Q11">
-        <v>1.102559081086919</v>
+        <v>1.07318181106293</v>
       </c>
       <c r="R11">
-        <v>1.211844600754898</v>
+        <v>1.071137995166631</v>
       </c>
       <c r="S11">
-        <v>1.211844600754898</v>
+        <v>1.071137995166631</v>
       </c>
       <c r="T11">
-        <v>0.9715982576445775</v>
+        <v>1.027740618005595</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7888097486144223</v>
+        <v>0.4034336442027519</v>
       </c>
       <c r="D12">
-        <v>0.9467072450086004</v>
+        <v>0.4402534641481524</v>
       </c>
       <c r="E12">
-        <v>1.173161812160189</v>
+        <v>1.320817563278153</v>
       </c>
       <c r="F12">
-        <v>0.8256160774362186</v>
+        <v>0.4439465374543483</v>
       </c>
       <c r="G12">
-        <v>0.8256160774362186</v>
+        <v>0.4439465374543483</v>
       </c>
       <c r="H12">
-        <v>3.108472324176579</v>
+        <v>9.011783012933586</v>
       </c>
       <c r="I12">
-        <v>3.108472324176579</v>
+        <v>9.011783012933586</v>
       </c>
       <c r="J12">
-        <v>0.7678950297415786</v>
+        <v>0.3799062120124767</v>
       </c>
       <c r="K12">
-        <v>0.8256160774362186</v>
+        <v>0.4439465374543483</v>
       </c>
       <c r="L12">
-        <v>0.7678950297415786</v>
+        <v>0.3799062120124767</v>
       </c>
       <c r="M12">
-        <v>1.938183676959079</v>
+        <v>4.695844612473032</v>
       </c>
       <c r="N12">
-        <v>1.938183676959079</v>
+        <v>4.695844612473032</v>
       </c>
       <c r="O12">
-        <v>1.683176388692782</v>
+        <v>3.570835596074739</v>
       </c>
       <c r="P12">
-        <v>1.567327810451459</v>
+        <v>3.278545254133471</v>
       </c>
       <c r="Q12">
-        <v>1.567327810451459</v>
+        <v>3.278545254133471</v>
       </c>
       <c r="R12">
-        <v>1.381899877197649</v>
+        <v>2.56989557496369</v>
       </c>
       <c r="S12">
-        <v>1.381899877197649</v>
+        <v>2.56989557496369</v>
       </c>
       <c r="T12">
-        <v>1.268443706189598</v>
+        <v>2.000023405671578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.084139923684933</v>
+        <v>0.9898997605274013</v>
       </c>
       <c r="D13">
-        <v>1.423778095786368</v>
+        <v>0.5524644133454309</v>
       </c>
       <c r="E13">
-        <v>0.7241755148521914</v>
+        <v>0.9795481287338756</v>
       </c>
       <c r="F13">
-        <v>1.270193623858711</v>
+        <v>1.539701159758835</v>
       </c>
       <c r="G13">
-        <v>1.270193623858711</v>
+        <v>1.539701159758835</v>
       </c>
       <c r="H13">
-        <v>0.692302309020011</v>
+        <v>0.8877467824356902</v>
       </c>
       <c r="I13">
-        <v>0.692302309020011</v>
+        <v>0.8877467824356902</v>
       </c>
       <c r="J13">
-        <v>0.9737445029811634</v>
+        <v>0.8802293010662323</v>
       </c>
       <c r="K13">
-        <v>1.270193623858711</v>
+        <v>1.539701159758835</v>
       </c>
       <c r="L13">
-        <v>0.9737445029811634</v>
+        <v>0.8802293010662323</v>
       </c>
       <c r="M13">
-        <v>0.8330234060005872</v>
+        <v>0.8839880417509612</v>
       </c>
       <c r="N13">
-        <v>0.8330234060005872</v>
+        <v>0.8839880417509612</v>
       </c>
       <c r="O13">
-        <v>0.7967407756177886</v>
+        <v>0.9158414040785994</v>
       </c>
       <c r="P13">
-        <v>0.978746811953295</v>
+        <v>1.102559081086919</v>
       </c>
       <c r="Q13">
-        <v>0.978746811953295</v>
+        <v>1.102559081086919</v>
       </c>
       <c r="R13">
-        <v>1.051608514929649</v>
+        <v>1.211844600754898</v>
       </c>
       <c r="S13">
-        <v>1.051608514929649</v>
+        <v>1.211844600754898</v>
       </c>
       <c r="T13">
-        <v>1.02805566169723</v>
+        <v>0.9715982576445775</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0023948996</v>
+        <v>0.7888097486144223</v>
       </c>
       <c r="D14">
-        <v>-0.003255679799999996</v>
+        <v>0.9467072450086004</v>
       </c>
       <c r="E14">
-        <v>1.4427831</v>
+        <v>1.173161812160189</v>
       </c>
       <c r="F14">
-        <v>0.0006486686400000005</v>
+        <v>0.8256160774362186</v>
       </c>
       <c r="G14">
-        <v>0.0006486686400000005</v>
+        <v>0.8256160774362186</v>
       </c>
       <c r="H14">
-        <v>15.308083</v>
+        <v>3.108472324176579</v>
       </c>
       <c r="I14">
-        <v>15.308083</v>
+        <v>3.108472324176579</v>
       </c>
       <c r="J14">
-        <v>0.004003170599999996</v>
+        <v>0.7678950297415786</v>
       </c>
       <c r="K14">
-        <v>0.0006486686400000005</v>
+        <v>0.8256160774362186</v>
       </c>
       <c r="L14">
-        <v>0.004003170599999996</v>
+        <v>0.7678950297415786</v>
       </c>
       <c r="M14">
-        <v>7.656043085300001</v>
+        <v>1.938183676959079</v>
       </c>
       <c r="N14">
-        <v>7.656043085300001</v>
+        <v>1.938183676959079</v>
       </c>
       <c r="O14">
-        <v>5.584956423533335</v>
+        <v>1.683176388692782</v>
       </c>
       <c r="P14">
-        <v>5.104244946413334</v>
+        <v>1.567327810451459</v>
       </c>
       <c r="Q14">
-        <v>5.104244946413334</v>
+        <v>1.567327810451459</v>
       </c>
       <c r="R14">
-        <v>3.828345876970001</v>
+        <v>1.381899877197649</v>
       </c>
       <c r="S14">
-        <v>3.828345876970001</v>
+        <v>1.381899877197649</v>
       </c>
       <c r="T14">
-        <v>2.792442859840001</v>
+        <v>1.268443706189598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.60377661</v>
+        <v>1.084139923684933</v>
       </c>
       <c r="D15">
-        <v>0.007481255500000001</v>
+        <v>1.423778095786368</v>
       </c>
       <c r="E15">
-        <v>0.05715137000000001</v>
+        <v>0.7241755148521914</v>
       </c>
       <c r="F15">
-        <v>7.6546011</v>
+        <v>1.270193623858711</v>
       </c>
       <c r="G15">
-        <v>7.6546011</v>
+        <v>1.270193623858711</v>
       </c>
       <c r="H15">
-        <v>0.0006486686500000001</v>
+        <v>0.692302309020011</v>
       </c>
       <c r="I15">
-        <v>0.0006486686500000001</v>
+        <v>0.692302309020011</v>
       </c>
       <c r="J15">
-        <v>0.026860481</v>
+        <v>0.9737445029811634</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>1.270193623858711</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>0.9737445029811634</v>
       </c>
       <c r="M15">
-        <v>0.013754574825</v>
+        <v>0.8330234060005872</v>
       </c>
       <c r="N15">
-        <v>0.013754574825</v>
+        <v>0.8330234060005872</v>
       </c>
       <c r="O15">
-        <v>0.02822017321666667</v>
+        <v>0.7967407756177886</v>
       </c>
       <c r="P15">
-        <v>2.56070341655</v>
+        <v>0.978746811953295</v>
       </c>
       <c r="Q15">
-        <v>2.56070341655</v>
+        <v>0.978746811953295</v>
       </c>
       <c r="R15">
-        <v>3.8341778374125</v>
+        <v>1.051608514929649</v>
       </c>
       <c r="S15">
-        <v>3.8341778374125</v>
+        <v>1.051608514929649</v>
       </c>
       <c r="T15">
-        <v>1.391753247525</v>
+        <v>1.02805566169723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.60377661</v>
+        <v>0.0023948996</v>
       </c>
       <c r="D16">
-        <v>0.007481255500000001</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="E16">
-        <v>0.05715137000000001</v>
+        <v>1.4427831</v>
       </c>
       <c r="F16">
-        <v>7.6546011</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="G16">
-        <v>7.6546011</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="H16">
-        <v>0.0006486686500000001</v>
+        <v>15.308083</v>
       </c>
       <c r="I16">
-        <v>0.0006486686500000001</v>
+        <v>15.308083</v>
       </c>
       <c r="J16">
-        <v>0.026860481</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="K16">
-        <v>7.6546011</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="L16">
-        <v>0.026860481</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="M16">
-        <v>0.013754574825</v>
+        <v>7.656043085300001</v>
       </c>
       <c r="N16">
-        <v>0.013754574825</v>
+        <v>7.656043085300001</v>
       </c>
       <c r="O16">
-        <v>0.02822017321666667</v>
+        <v>5.584956423533335</v>
       </c>
       <c r="P16">
-        <v>2.56070341655</v>
+        <v>5.104244946413334</v>
       </c>
       <c r="Q16">
-        <v>2.56070341655</v>
+        <v>5.104244946413334</v>
       </c>
       <c r="R16">
-        <v>3.8341778374125</v>
+        <v>3.828345876970001</v>
       </c>
       <c r="S16">
-        <v>3.8341778374125</v>
+        <v>3.828345876970001</v>
       </c>
       <c r="T16">
-        <v>1.391753247525</v>
+        <v>2.792442859840001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.54659165</v>
+        <v>0.60377661</v>
       </c>
       <c r="D17">
-        <v>9.482715000000001</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E17">
-        <v>-8.735273E-05</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="F17">
-        <v>0.014118213</v>
+        <v>7.6546011</v>
       </c>
       <c r="G17">
-        <v>0.014118213</v>
+        <v>7.6546011</v>
       </c>
       <c r="H17">
-        <v>0.00031124492</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I17">
-        <v>0.00031124492</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J17">
-        <v>0.98220786</v>
+        <v>0.026860481</v>
       </c>
       <c r="K17">
-        <v>0.014118213</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>0.98220786</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>0.49125955246</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N17">
-        <v>0.49125955246</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O17">
-        <v>0.32747725073</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P17">
-        <v>0.3322124393066667</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q17">
-        <v>0.3322124393066667</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R17">
-        <v>0.25268888273</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S17">
-        <v>0.25268888273</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T17">
-        <v>1.837642769198333</v>
+        <v>1.391753247525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3491501354575343</v>
+        <v>0.60377661</v>
       </c>
       <c r="D18">
-        <v>0.001398519309315068</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E18">
-        <v>1.956646233013699</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="F18">
-        <v>1.89035945828504</v>
+        <v>7.6546011</v>
       </c>
       <c r="G18">
-        <v>1.89035945828504</v>
+        <v>7.6546011</v>
       </c>
       <c r="H18">
-        <v>3.571374211584247</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I18">
-        <v>3.571374211584247</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="J18">
-        <v>0.06375218881369865</v>
+        <v>0.026860481</v>
       </c>
       <c r="K18">
-        <v>1.89035945828504</v>
+        <v>7.6546011</v>
       </c>
       <c r="L18">
-        <v>0.06375218881369865</v>
+        <v>0.026860481</v>
       </c>
       <c r="M18">
-        <v>1.817563200198973</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N18">
-        <v>1.817563200198973</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O18">
-        <v>1.863924211137215</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P18">
-        <v>1.841828619560995</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q18">
-        <v>1.841828619560995</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R18">
-        <v>1.853961329242007</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S18">
-        <v>1.853961329242007</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T18">
-        <v>1.305446791077255</v>
+        <v>1.391753247525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8011603088052632</v>
+        <v>0.54659165</v>
       </c>
       <c r="D19">
-        <v>2.571987575744737</v>
+        <v>9.482715000000001</v>
       </c>
       <c r="E19">
-        <v>0.5875345469949472</v>
+        <v>-8.735273E-05</v>
       </c>
       <c r="F19">
-        <v>1.065794947038158</v>
+        <v>0.014118213</v>
       </c>
       <c r="G19">
-        <v>1.065794947038158</v>
+        <v>0.014118213</v>
       </c>
       <c r="H19">
-        <v>2.117882948532106</v>
+        <v>0.00031124492</v>
       </c>
       <c r="I19">
-        <v>2.117882948532106</v>
+        <v>0.00031124492</v>
       </c>
       <c r="J19">
-        <v>1.103891457573684</v>
+        <v>0.98220786</v>
       </c>
       <c r="K19">
-        <v>1.065794947038158</v>
+        <v>0.014118213</v>
       </c>
       <c r="L19">
-        <v>1.103891457573684</v>
+        <v>0.98220786</v>
       </c>
       <c r="M19">
-        <v>1.610887203052895</v>
+        <v>0.49125955246</v>
       </c>
       <c r="N19">
-        <v>1.610887203052895</v>
+        <v>0.49125955246</v>
       </c>
       <c r="O19">
-        <v>1.269769651033579</v>
+        <v>0.32747725073</v>
       </c>
       <c r="P19">
-        <v>1.429189784381316</v>
+        <v>0.3322124393066667</v>
       </c>
       <c r="Q19">
-        <v>1.429189784381316</v>
+        <v>0.3322124393066667</v>
       </c>
       <c r="R19">
-        <v>1.338341075045526</v>
+        <v>0.25268888273</v>
       </c>
       <c r="S19">
-        <v>1.338341075045526</v>
+        <v>0.25268888273</v>
       </c>
       <c r="T19">
-        <v>1.374708630781482</v>
+        <v>1.837642769198333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8011603088052632</v>
+        <v>0.3491501354575343</v>
       </c>
       <c r="D20">
-        <v>2.571987575744737</v>
+        <v>0.001398519309315068</v>
       </c>
       <c r="E20">
-        <v>0.5875345469949472</v>
+        <v>1.956646233013699</v>
       </c>
       <c r="F20">
-        <v>1.065794947038158</v>
+        <v>1.89035945828504</v>
       </c>
       <c r="G20">
-        <v>1.065794947038158</v>
+        <v>1.89035945828504</v>
       </c>
       <c r="H20">
-        <v>2.117882948533158</v>
+        <v>3.571374211584247</v>
       </c>
       <c r="I20">
-        <v>2.117882948533158</v>
+        <v>3.571374211584247</v>
       </c>
       <c r="J20">
-        <v>1.103891457573684</v>
+        <v>0.06375218881369865</v>
       </c>
       <c r="K20">
-        <v>1.065794947038158</v>
+        <v>1.89035945828504</v>
       </c>
       <c r="L20">
-        <v>1.103891457573684</v>
+        <v>0.06375218881369865</v>
       </c>
       <c r="M20">
-        <v>1.610887203053421</v>
+        <v>1.817563200198973</v>
       </c>
       <c r="N20">
-        <v>1.610887203053421</v>
+        <v>1.817563200198973</v>
       </c>
       <c r="O20">
-        <v>1.26976965103393</v>
+        <v>1.863924211137215</v>
       </c>
       <c r="P20">
-        <v>1.429189784381667</v>
+        <v>1.841828619560995</v>
       </c>
       <c r="Q20">
-        <v>1.429189784381667</v>
+        <v>1.841828619560995</v>
       </c>
       <c r="R20">
-        <v>1.338341075045789</v>
+        <v>1.853961329242007</v>
       </c>
       <c r="S20">
-        <v>1.338341075045789</v>
+        <v>1.853961329242007</v>
       </c>
       <c r="T20">
-        <v>1.374708630781658</v>
+        <v>1.305446791077255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.321770894541482</v>
+        <v>0.8011603088052632</v>
       </c>
       <c r="D21">
-        <v>1.77664282667386</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="E21">
-        <v>0.5011461361531316</v>
+        <v>0.5875345469949472</v>
       </c>
       <c r="F21">
-        <v>0.3218564699133816</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="G21">
-        <v>0.3218564699133816</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="H21">
-        <v>0.08773681506704098</v>
+        <v>2.117882948532106</v>
       </c>
       <c r="I21">
-        <v>0.08773681506704098</v>
+        <v>2.117882948532106</v>
       </c>
       <c r="J21">
-        <v>1.427669694193637</v>
+        <v>1.103891457573684</v>
       </c>
       <c r="K21">
-        <v>0.3218564699133816</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="L21">
-        <v>1.427669694193637</v>
+        <v>1.103891457573684</v>
       </c>
       <c r="M21">
-        <v>0.7577032546303391</v>
+        <v>1.610887203052895</v>
       </c>
       <c r="N21">
-        <v>0.7577032546303391</v>
+        <v>1.610887203052895</v>
       </c>
       <c r="O21">
-        <v>0.6721842151379366</v>
+        <v>1.269769651033579</v>
       </c>
       <c r="P21">
-        <v>0.6124209930580199</v>
+        <v>1.429189784381316</v>
       </c>
       <c r="Q21">
-        <v>0.6124209930580199</v>
+        <v>1.429189784381316</v>
       </c>
       <c r="R21">
-        <v>0.5397798622718603</v>
+        <v>1.338341075045526</v>
       </c>
       <c r="S21">
-        <v>0.5397798622718603</v>
+        <v>1.338341075045526</v>
       </c>
       <c r="T21">
-        <v>0.9061371394237554</v>
+        <v>1.374708630781482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8381313218092414</v>
+        <v>0.8011603088052632</v>
       </c>
       <c r="D22">
-        <v>1.386083954800664</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="E22">
-        <v>1.084522476290895</v>
+        <v>0.5875345469949472</v>
       </c>
       <c r="F22">
-        <v>1.715653053211375</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="G22">
-        <v>1.715653053211375</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="H22">
-        <v>1.045772899733438</v>
+        <v>2.117882948533158</v>
       </c>
       <c r="I22">
-        <v>1.045772899733438</v>
+        <v>2.117882948533158</v>
       </c>
       <c r="J22">
-        <v>0.6616939008335981</v>
+        <v>1.103891457573684</v>
       </c>
       <c r="K22">
-        <v>1.715653053211375</v>
+        <v>1.065794947038158</v>
       </c>
       <c r="L22">
-        <v>0.6616939008335981</v>
+        <v>1.103891457573684</v>
       </c>
       <c r="M22">
-        <v>0.853733400283518</v>
+        <v>1.610887203053421</v>
       </c>
       <c r="N22">
-        <v>0.853733400283518</v>
+        <v>1.610887203053421</v>
       </c>
       <c r="O22">
-        <v>0.930663092285977</v>
+        <v>1.26976965103393</v>
       </c>
       <c r="P22">
-        <v>1.14103995125947</v>
+        <v>1.429189784381667</v>
       </c>
       <c r="Q22">
-        <v>1.14103995125947</v>
+        <v>1.429189784381667</v>
       </c>
       <c r="R22">
-        <v>1.284693226747446</v>
+        <v>1.338341075045789</v>
       </c>
       <c r="S22">
-        <v>1.284693226747446</v>
+        <v>1.338341075045789</v>
       </c>
       <c r="T22">
-        <v>1.121976267779868</v>
+        <v>1.374708630781658</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.141002669141212</v>
+        <v>1.321770894541482</v>
       </c>
       <c r="D23">
-        <v>0.06967064365367504</v>
+        <v>1.77664282667386</v>
       </c>
       <c r="E23">
-        <v>0.8761457003203269</v>
+        <v>0.5011461361531316</v>
       </c>
       <c r="F23">
-        <v>2.479441576350061</v>
+        <v>0.3218564699133816</v>
       </c>
       <c r="G23">
-        <v>2.479441576350061</v>
+        <v>0.3218564699133816</v>
       </c>
       <c r="H23">
-        <v>0.08778695144993871</v>
+        <v>0.08773681506704098</v>
       </c>
       <c r="I23">
-        <v>0.08778695144993871</v>
+        <v>0.08773681506704098</v>
       </c>
       <c r="J23">
-        <v>0.4796082259608624</v>
+        <v>1.427669694193637</v>
       </c>
       <c r="K23">
-        <v>2.479441576350061</v>
+        <v>0.3218564699133816</v>
       </c>
       <c r="L23">
-        <v>0.4796082259608624</v>
+        <v>1.427669694193637</v>
       </c>
       <c r="M23">
-        <v>0.2836975887054006</v>
+        <v>0.7577032546303391</v>
       </c>
       <c r="N23">
-        <v>0.2836975887054006</v>
+        <v>0.7577032546303391</v>
       </c>
       <c r="O23">
-        <v>0.4811802925770427</v>
+        <v>0.6721842151379366</v>
       </c>
       <c r="P23">
-        <v>1.015612251253621</v>
+        <v>0.6124209930580199</v>
       </c>
       <c r="Q23">
-        <v>1.015612251253621</v>
+        <v>0.6124209930580199</v>
       </c>
       <c r="R23">
-        <v>1.381569582527731</v>
+        <v>0.5397798622718603</v>
       </c>
       <c r="S23">
-        <v>1.381569582527731</v>
+        <v>0.5397798622718603</v>
       </c>
       <c r="T23">
-        <v>0.855609294479346</v>
+        <v>0.9061371394237554</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.081911017530356</v>
+        <v>0.8381313218092414</v>
       </c>
       <c r="D24">
-        <v>1.232729222069633</v>
+        <v>1.386083954800664</v>
       </c>
       <c r="E24">
-        <v>0.824156571401244</v>
+        <v>1.084522476290895</v>
       </c>
       <c r="F24">
-        <v>0.3204352799556485</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="G24">
-        <v>0.3204352799556485</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="H24">
-        <v>1.050513637667589</v>
+        <v>1.045772899733438</v>
       </c>
       <c r="I24">
-        <v>1.050513637667589</v>
+        <v>1.045772899733438</v>
       </c>
       <c r="J24">
-        <v>1.452558459160359</v>
+        <v>0.6616939008335981</v>
       </c>
       <c r="K24">
-        <v>0.3204352799556485</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="L24">
-        <v>1.452558459160359</v>
+        <v>0.6616939008335981</v>
       </c>
       <c r="M24">
-        <v>1.251536048413974</v>
+        <v>0.853733400283518</v>
       </c>
       <c r="N24">
-        <v>1.251536048413974</v>
+        <v>0.853733400283518</v>
       </c>
       <c r="O24">
-        <v>1.109076222743064</v>
+        <v>0.930663092285977</v>
       </c>
       <c r="P24">
-        <v>0.9411691255945321</v>
+        <v>1.14103995125947</v>
       </c>
       <c r="Q24">
-        <v>0.9411691255945321</v>
+        <v>1.14103995125947</v>
       </c>
       <c r="R24">
-        <v>0.7859856641848113</v>
+        <v>1.284693226747446</v>
       </c>
       <c r="S24">
-        <v>0.7859856641848113</v>
+        <v>1.284693226747446</v>
       </c>
       <c r="T24">
-        <v>0.9937173646308048</v>
+        <v>1.121976267779868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.321770894541482</v>
+        <v>1.141002669141212</v>
       </c>
       <c r="D25">
-        <v>1.77664282667386</v>
+        <v>0.06967064365367504</v>
       </c>
       <c r="E25">
-        <v>0.5011461361531317</v>
+        <v>0.8761457003203269</v>
       </c>
       <c r="F25">
-        <v>0.3218564699133815</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="G25">
-        <v>0.3218564699133815</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="H25">
-        <v>0.08773681507864868</v>
+        <v>0.08778695144993871</v>
       </c>
       <c r="I25">
-        <v>0.08773681507864868</v>
+        <v>0.08778695144993871</v>
       </c>
       <c r="J25">
-        <v>1.427669694193637</v>
+        <v>0.4796082259608624</v>
       </c>
       <c r="K25">
-        <v>0.3218564699133815</v>
+        <v>2.479441576350061</v>
       </c>
       <c r="L25">
-        <v>1.427669694193637</v>
+        <v>0.4796082259608624</v>
       </c>
       <c r="M25">
-        <v>0.7577032546361429</v>
+        <v>0.2836975887054006</v>
       </c>
       <c r="N25">
-        <v>0.7577032546361429</v>
+        <v>0.2836975887054006</v>
       </c>
       <c r="O25">
-        <v>0.6721842151418058</v>
+        <v>0.4811802925770427</v>
       </c>
       <c r="P25">
-        <v>0.612420993061889</v>
+        <v>1.015612251253621</v>
       </c>
       <c r="Q25">
-        <v>0.612420993061889</v>
+        <v>1.015612251253621</v>
       </c>
       <c r="R25">
-        <v>0.5397798622747622</v>
+        <v>1.381569582527731</v>
       </c>
       <c r="S25">
-        <v>0.5397798622747622</v>
+        <v>1.381569582527731</v>
       </c>
       <c r="T25">
-        <v>0.9061371394256902</v>
+        <v>0.855609294479346</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8381313218092414</v>
+        <v>1.081911017530356</v>
       </c>
       <c r="D26">
-        <v>1.386083954800663</v>
+        <v>1.232729222069633</v>
       </c>
       <c r="E26">
-        <v>1.084522476290895</v>
+        <v>0.824156571401244</v>
       </c>
       <c r="F26">
-        <v>1.715653053211375</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="G26">
-        <v>1.715653053211375</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="H26">
-        <v>1.045772899733671</v>
+        <v>1.050513637667589</v>
       </c>
       <c r="I26">
-        <v>1.045772899733671</v>
+        <v>1.050513637667589</v>
       </c>
       <c r="J26">
-        <v>0.6616939008335981</v>
+        <v>1.452558459160359</v>
       </c>
       <c r="K26">
-        <v>1.715653053211375</v>
+        <v>0.3204352799556485</v>
       </c>
       <c r="L26">
-        <v>0.6616939008335981</v>
+        <v>1.452558459160359</v>
       </c>
       <c r="M26">
-        <v>0.8537334002836345</v>
+        <v>1.251536048413974</v>
       </c>
       <c r="N26">
-        <v>0.8537334002836345</v>
+        <v>1.251536048413974</v>
       </c>
       <c r="O26">
-        <v>0.9306630922860547</v>
+        <v>1.109076222743064</v>
       </c>
       <c r="P26">
-        <v>1.141039951259548</v>
+        <v>0.9411691255945321</v>
       </c>
       <c r="Q26">
-        <v>1.141039951259548</v>
+        <v>0.9411691255945321</v>
       </c>
       <c r="R26">
-        <v>1.284693226747505</v>
+        <v>0.7859856641848113</v>
       </c>
       <c r="S26">
-        <v>1.284693226747505</v>
+        <v>0.7859856641848113</v>
       </c>
       <c r="T26">
-        <v>1.121976267779907</v>
+        <v>0.9937173646308048</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8993993668974576</v>
+        <v>1.321770894541482</v>
       </c>
       <c r="D27">
-        <v>0.5794592082418267</v>
+        <v>1.77664282667386</v>
       </c>
       <c r="E27">
-        <v>1.3900915395948</v>
+        <v>0.5011461361531317</v>
       </c>
       <c r="F27">
-        <v>0.5824803981642404</v>
+        <v>0.3218564699133815</v>
       </c>
       <c r="G27">
-        <v>0.5824803981642404</v>
+        <v>0.3218564699133815</v>
       </c>
       <c r="H27">
-        <v>1.148692971632562</v>
+        <v>0.08773681507864868</v>
       </c>
       <c r="I27">
-        <v>1.148692971632562</v>
+        <v>0.08773681507864868</v>
       </c>
       <c r="J27">
-        <v>1.022730233556913</v>
+        <v>1.427669694193637</v>
       </c>
       <c r="K27">
-        <v>0.5824803981642404</v>
+        <v>0.3218564699133815</v>
       </c>
       <c r="L27">
-        <v>1.022730233556913</v>
+        <v>1.427669694193637</v>
       </c>
       <c r="M27">
-        <v>1.085711602594738</v>
+        <v>0.7577032546361429</v>
       </c>
       <c r="N27">
-        <v>1.085711602594738</v>
+        <v>0.7577032546361429</v>
       </c>
       <c r="O27">
-        <v>1.187171581594759</v>
+        <v>0.6721842151418058</v>
       </c>
       <c r="P27">
-        <v>0.9179678677845718</v>
+        <v>0.612420993061889</v>
       </c>
       <c r="Q27">
-        <v>0.9179678677845718</v>
+        <v>0.612420993061889</v>
       </c>
       <c r="R27">
-        <v>0.8340960003794891</v>
+        <v>0.5397798622747622</v>
       </c>
       <c r="S27">
-        <v>0.8340960003794891</v>
+        <v>0.5397798622747622</v>
       </c>
       <c r="T27">
-        <v>0.9371422863479667</v>
+        <v>0.9061371394256902</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9530746685624495</v>
+        <v>0.8381313218092414</v>
       </c>
       <c r="D28">
-        <v>2.066977073546695</v>
+        <v>1.386083954800663</v>
       </c>
       <c r="E28">
-        <v>0.8000890735142706</v>
+        <v>1.084522476290895</v>
       </c>
       <c r="F28">
-        <v>0.782169442894889</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="G28">
-        <v>0.782169442894889</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="H28">
-        <v>1.397491008235036</v>
+        <v>1.045772899733671</v>
       </c>
       <c r="I28">
-        <v>1.397491008235036</v>
+        <v>1.045772899733671</v>
       </c>
       <c r="J28">
-        <v>0.9383585318476719</v>
+        <v>0.6616939008335981</v>
       </c>
       <c r="K28">
-        <v>0.782169442894889</v>
+        <v>1.715653053211375</v>
       </c>
       <c r="L28">
-        <v>0.9383585318476719</v>
+        <v>0.6616939008335981</v>
       </c>
       <c r="M28">
-        <v>1.167924770041354</v>
+        <v>0.8537334002836345</v>
       </c>
       <c r="N28">
-        <v>1.167924770041354</v>
+        <v>0.8537334002836345</v>
       </c>
       <c r="O28">
-        <v>1.045312871198993</v>
+        <v>0.9306630922860547</v>
       </c>
       <c r="P28">
-        <v>1.039339660992532</v>
+        <v>1.141039951259548</v>
       </c>
       <c r="Q28">
-        <v>1.039339660992532</v>
+        <v>1.141039951259548</v>
       </c>
       <c r="R28">
-        <v>0.9750471064681215</v>
+        <v>1.284693226747505</v>
       </c>
       <c r="S28">
-        <v>0.9750471064681215</v>
+        <v>1.284693226747505</v>
       </c>
       <c r="T28">
-        <v>1.156359966433502</v>
+        <v>1.121976267779907</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.8993993668974576</v>
+      </c>
+      <c r="D29">
+        <v>0.5794592082418267</v>
+      </c>
+      <c r="E29">
+        <v>1.3900915395948</v>
+      </c>
+      <c r="F29">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="G29">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="H29">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="I29">
+        <v>1.148692971632562</v>
+      </c>
+      <c r="J29">
+        <v>1.022730233556913</v>
+      </c>
+      <c r="K29">
+        <v>0.5824803981642404</v>
+      </c>
+      <c r="L29">
+        <v>1.022730233556913</v>
+      </c>
+      <c r="M29">
+        <v>1.085711602594738</v>
+      </c>
+      <c r="N29">
+        <v>1.085711602594738</v>
+      </c>
+      <c r="O29">
+        <v>1.187171581594759</v>
+      </c>
+      <c r="P29">
+        <v>0.9179678677845718</v>
+      </c>
+      <c r="Q29">
+        <v>0.9179678677845718</v>
+      </c>
+      <c r="R29">
+        <v>0.8340960003794891</v>
+      </c>
+      <c r="S29">
+        <v>0.8340960003794891</v>
+      </c>
+      <c r="T29">
+        <v>0.9371422863479667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9530746685624495</v>
+      </c>
+      <c r="D30">
+        <v>2.066977073546695</v>
+      </c>
+      <c r="E30">
+        <v>0.8000890735142706</v>
+      </c>
+      <c r="F30">
+        <v>0.782169442894889</v>
+      </c>
+      <c r="G30">
+        <v>0.782169442894889</v>
+      </c>
+      <c r="H30">
+        <v>1.397491008235036</v>
+      </c>
+      <c r="I30">
+        <v>1.397491008235036</v>
+      </c>
+      <c r="J30">
+        <v>0.9383585318476719</v>
+      </c>
+      <c r="K30">
+        <v>0.782169442894889</v>
+      </c>
+      <c r="L30">
+        <v>0.9383585318476719</v>
+      </c>
+      <c r="M30">
+        <v>1.167924770041354</v>
+      </c>
+      <c r="N30">
+        <v>1.167924770041354</v>
+      </c>
+      <c r="O30">
+        <v>1.045312871198993</v>
+      </c>
+      <c r="P30">
+        <v>1.039339660992532</v>
+      </c>
+      <c r="Q30">
+        <v>1.039339660992532</v>
+      </c>
+      <c r="R30">
+        <v>0.9750471064681215</v>
+      </c>
+      <c r="S30">
+        <v>0.9750471064681215</v>
+      </c>
+      <c r="T30">
+        <v>1.156359966433502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.193536956628868</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.880923531050676</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.4023995443724684</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.7079018247397664</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.7079018247397664</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.01157730000602827</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.01157730000602827</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.344270952320645</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.7079018247397664</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.344270952320645</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.6779241261633366</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.6779241261633366</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.5860825988997139</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.6879166923554799</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.6879166923554799</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.6929129754515515</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.6929129754515515</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.090101684853075</v>
       </c>
     </row>
